--- a/Files/ExpResult/Du62-模拟退火算法.xlsx
+++ b/Files/ExpResult/Du62-模拟退火算法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15080"/>
+    <workbookView windowHeight="15160"/>
   </bookViews>
   <sheets>
     <sheet name="Du62-模拟退火算法" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="57">
   <si>
     <t>实例</t>
   </si>
@@ -132,6 +132,72 @@
   </si>
   <si>
     <t>[array([40, 48, 47, 20, 15, 42]), array([ 1, 18, 59, 27, 28, 54,  5,  8, 19]), array([36, 31, 52, 16, 34, 29, 62, 17]), array([11, 21, 57,  2, 44, 24]), array([13, 45,  3, 56, 12, 30,  7, 50, 39]), array([26, 46, 10, 53, 49, 60, 58, 55, 14]), array([51, 37, 33, 35, 25, 22, 32, 61]), array([ 9, 41, 23, 38, 43,  4,  6])]</t>
+  </si>
+  <si>
+    <t>[array([14, 18, 27, 46, 25]), array([ 4, 42, 31, 60, 35]), array([23,  6, 62, 21, 12, 17, 26,  3, 28]), array([61, 36, 45, 44, 55, 57, 22]), array([48,  1, 52, 13, 37, 47, 29, 38]), array([2]), array([34]), array([ 7, 43]), array([32,  8,  5, 16, 11, 54]), array([53, 40, 33, 39, 56, 19]), array([24, 41]), array([20, 51]), array([30]), array([49]), array([15, 50,  9]), array([10, 58, 59])]</t>
+  </si>
+  <si>
+    <t>取消修复动作算子-随机初始解</t>
+  </si>
+  <si>
+    <t>[array([10]), array([11, 36, 35, 16, 34, 19, 30]), array([55]), array([41]), array([51, 47,  6, 52, 56, 58]), array([17, 29,  9, 24, 43]), array([12]), array([60]), array([22, 42, 62, 54, 15, 49, 50]), array([25]), array([18]), array([20,  7, 39, 26, 33,  8, 44, 23, 32, 46]), array([40, 53]), array([57, 27, 14]), array([4]), array([2]), array([61]), array([5]), array([38]), array([37]), array([48, 13, 28, 31,  3, 21, 59]), array([1]), array([45])]</t>
+  </si>
+  <si>
+    <t>[array([53, 48, 25, 20, 21, 50, 11, 32,  3]), array([43]), array([62,  6, 26, 41]), array([10]), array([42, 28]), array([18]), array([1]), array([30, 58,  8]), array([40, 46, 14, 22, 51]), array([38]), array([47, 60, 27, 35, 36, 15, 16, 59,  9, 44]), array([33, 55, 37, 34, 61, 56, 24]), array([45,  7, 49,  5]), array([54, 17,  2, 29, 52, 31, 12, 57, 19]), array([4]), array([23]), array([39, 13])]</t>
+  </si>
+  <si>
+    <t>[array([12, 31, 49, 14, 40, 53, 54]), array([52]), array([26,  5, 11, 37, 18, 42]), array([10, 21]), array([20]), array([51]), array([19,  8, 32, 36, 28,  4]), array([27]), array([35]), array([41, 23, 57, 22, 13]), array([30, 34, 59, 62, 43, 24, 56, 58, 15, 16, 48]), array([ 6,  3, 29, 60,  2, 38,  9, 50,  7, 44, 61, 46]), array([25, 39, 55, 17,  1]), array([33, 47, 45])]</t>
+  </si>
+  <si>
+    <t>[array([14, 57, 30, 45, 26, 17]), array([ 8, 10, 37]), array([47, 31, 40,  9, 44, 55,  7, 49]), array([46]), array([32]), array([42]), array([50, 15,  2, 51]), array([ 1, 33, 39, 13, 38, 58]), array([62,  5, 34, 54, 21, 11, 20]), array([16, 23, 35,  3, 56, 48]), array([43]), array([18]), array([24]), array([41]), array([52, 28, 29, 22, 12, 25,  6, 27, 19, 36, 61,  4]), array([60, 53, 59])]</t>
+  </si>
+  <si>
+    <t>[array([42, 30,  7, 36, 14, 32,  6]), array([37, 17, 34, 43, 31, 29]), array([11]), array([40]), array([50]), array([59,  5]), array([35]), array([15]), array([41]), array([18]), array([60]), array([48,  2, 28, 44, 55, 47, 19, 46]), array([62, 57, 27]), array([25]), array([16]), array([12, 56,  9, 22]), array([54,  8, 61, 38,  4]), array([21]), array([51, 58, 20, 53,  1, 13]), array([52, 45, 33, 39, 23, 49]), array([3]), array([10]), array([24]), array([26])]</t>
+  </si>
+  <si>
+    <t>[array([46, 42, 31, 56, 27]), array([24, 48, 45,  5, 61,  9,  2]), array([41,  7, 50]), array([58]), array([38,  3]), array([37]), array([35,  1, 17, 59, 60,  8]), array([12, 52, 26]), array([54, 47, 25, 19]), array([62, 30, 21, 18, 20, 36, 55, 22]), array([40]), array([11, 43, 51, 33]), array([57]), array([10]), array([29, 32, 28, 34, 44, 23, 39]), array([49]), array([16,  4,  6, 15, 13, 14, 53])]</t>
+  </si>
+  <si>
+    <t>[array([26, 12]), array([50, 45,  4, 24, 22]), array([ 1, 30, 28, 23, 35, 39]), array([42,  2, 31, 16, 21, 44, 49]), array([10]), array([9]), array([51,  6,  3, 55, 17]), array([41, 25, 36, 15, 20]), array([37, 13, 62, 46, 58, 47]), array([52]), array([57]), array([18, 48,  7, 14]), array([59]), array([ 5, 32, 54, 11,  8, 56, 29, 40, 60]), array([34, 61]), array([19, 38, 53, 43, 27, 33])]</t>
+  </si>
+  <si>
+    <t>[array([23,  2, 54, 29]), array([47]), array([50]), array([60, 40, 58, 30, 56, 12, 37, 35]), array([43, 44,  4, 52, 62]), array([9]), array([46]), array([14, 11, 53,  3]), array([18]), array([16, 39,  1, 55, 13]), array([26]), array([32]), array([21]), array([59]), array([42,  8, 36, 22, 61, 33,  7, 51]), array([17, 27, 24, 10, 19, 25]), array([ 6, 48, 28]), array([49]), array([41, 38, 57, 34, 45, 20, 31]), array([15,  5])]</t>
+  </si>
+  <si>
+    <t>[array([57,  4, 34, 59, 23, 62]), array([58]), array([ 6, 38, 39, 31, 51]), array([21]), array([42]), array([25]), array([ 3, 17]), array([43, 27]), array([11]), array([ 5, 41, 47, 19, 60,  7, 20, 61, 30, 55, 18, 44, 10]), array([53, 26,  2]), array([ 1, 46, 45, 35, 13]), array([ 8, 50, 37, 32, 56]), array([28]), array([54, 40, 12, 16, 29,  9]), array([33]), array([52]), array([14]), array([48, 49, 24, 36, 22, 15])]</t>
+  </si>
+  <si>
+    <t>[array([24]), array([37, 10, 21]), array([22, 44]), array([47, 38, 46, 50, 13, 18, 19, 36, 57, 27, 28]), array([31, 11, 54, 35, 43, 39, 60, 25]), array([29, 58, 48, 30,  3,  2, 41,  8, 40, 26, 23]), array([53, 17, 42, 20,  4]), array([56, 34, 33, 49]), array([14,  6, 52, 32, 62, 55,  9]), array([15,  7, 12,  5, 51]), array([ 1, 45, 16, 61, 59])]</t>
+  </si>
+  <si>
+    <t>取消修复动作算子-K分初始解</t>
+  </si>
+  <si>
+    <t>[array([50, 61, 32, 24, 29,  2, 35, 19, 12]), array([27,  3, 13]), array([ 5, 57, 60]), array([43, 58, 26,  9, 10]), array([37, 33, 22, 53, 54]), array([42, 49, 15, 34]), array([38, 17, 21, 47]), array([48, 39,  6, 14]), array([52]), array([56, 51]), array([20,  4, 18, 30, 41,  7,  1, 11, 31, 55, 23, 25]), array([28, 59,  8, 16, 40, 44, 62]), array([45, 46, 36])]</t>
+  </si>
+  <si>
+    <t>[array([21, 51, 47, 15, 14, 42, 53, 19, 52,  5, 10]), array([38, 50, 17, 39,  3, 13, 49]), array([61, 59, 23,  8, 33]), array([45, 24, 57]), array([ 6, 28, 37, 34, 36, 56]), array([48, 11, 16, 30, 44, 32, 29,  9]), array([ 1, 18,  2, 43, 31, 26]), array([27,  7, 12, 46, 20]), array([25, 62, 22,  4]), array([54, 55, 40, 41]), array([60, 58, 35])]</t>
+  </si>
+  <si>
+    <t>[array([60, 23, 20, 61, 17, 19, 36, 26, 21, 33, 52, 56]), array([57, 30,  8, 16, 12, 38, 32]), array([53,  9, 48, 50,  5, 40,  7, 47]), array([15, 42, 25, 58]), array([22, 13, 34, 39, 35,  1]), array([29, 14, 41, 31, 51, 28,  2, 10, 45, 62]), array([37, 59, 46,  3, 18]), array([44, 11, 54, 55]), array([27,  6, 43,  4, 49, 24])]</t>
+  </si>
+  <si>
+    <t>[array([34]), array([ 2, 61]), array([46]), array([9]), array([59]), array([21]), array([15, 36, 13, 62, 40]), array([42, 14, 57]), array([58]), array([3]), array([11, 25, 20, 27, 17]), array([32]), array([28, 38, 41, 50, 12, 43]), array([ 1, 51, 47, 26,  5, 54,  8, 22]), array([31, 33, 24, 55]), array([52]), array([56]), array([16]), array([ 4, 49, 35, 39, 30, 60, 45]), array([48]), array([37, 44, 23]), array([19,  6, 18,  7, 10, 53]), array([29])]</t>
+  </si>
+  <si>
+    <t>[[56, 43, 40, 35, 32, 30, 28, 38, 11, 50], [21, 52, 2, 36, 16, 24, 18, 57, 44, 60, 12], [47, 42, 19, 26, 58, 51, 5, 49, 53, 31, 27, 1, 41, 61], [3, 4, 39, 34, 46, 20, 55, 59, 25, 29, 8], [22, 48, 13, 6, 10, 62, 7, 23, 14], [33, 17, 45, 15, 54, 37, 9]]</t>
+  </si>
+  <si>
+    <t>[[32], [43, 28, 36, 11, 40, 50, 30, 18, 21, 57, 35, 56, 38, 2, 16, 60, 44], [19, 27, 26, 31, 12, 51, 52, 49, 47, 24, 58, 53], [29, 3, 1, 42, 59, 34, 61, 41, 5, 55], [25, 62, 46, 39, 4, 48, 20, 8, 6], [13, 7, 23, 10, 22, 14, 45], [33, 15, 37, 17, 54, 9]]</t>
+  </si>
+  <si>
+    <t>[array([51, 56, 59, 30, 18, 57, 49,  3, 60, 48, 43,  4]), array([27, 19, 31, 17, 61, 25, 10, 14, 45, 39]), array([23, 62, 16, 37,  1,  8, 40, 54]), array([11,  7, 26, 35, 32, 24, 22]), array([34, 42, 21, 28, 55, 41]), array([ 5,  2, 38, 12, 13, 20]), array([36, 58, 46, 33, 15]), array([53, 44,  6, 50]), array([ 9, 47, 29, 52])]</t>
+  </si>
+  <si>
+    <t>[[59, 30, 56, 2, 43, 36, 21, 60, 50, 40, 32, 11], [52, 24, 18, 35, 28, 44, 16, 38, 12], [49, 47, 19, 31, 58, 27, 26], [53, 5, 51, 41, 1, 42, 61], [55, 34, 3, 57, 29, 20], [39, 4, 25, 46, 8], [23, 48, 62, 6, 22], [7, 10, 13, 14], [45, 54, 37, 17], [15, 33, 9]]</t>
+  </si>
+  <si>
+    <t>[[32, 40, 30, 21, 43, 60, 56, 50, 2, 36, 57, 11], [20, 16, 35, 52, 28, 44, 38, 18, 12], [19, 49, 47, 58, 27, 31, 26], [42, 5, 53, 41, 1, 51, 61], [55, 29, 34, 59, 3, 24], [46, 4, 25, 39, 8], [62, 23, 6, 48, 22], [13, 10, 7, 14], [37, 45, 54, 17], [15, 33, 9]]</t>
   </si>
 </sst>
 </file>
@@ -751,10 +817,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1290,16 +1356,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
   <cols>
-    <col min="5" max="5" width="23.2307692307692" customWidth="1"/>
-    <col min="8" max="8" width="13.9423076923077" customWidth="1"/>
+    <col min="4" max="4" width="22.4326923076923" customWidth="1"/>
+    <col min="5" max="5" width="33.1730769230769" customWidth="1"/>
     <col min="10" max="10" width="10.6923076923077"/>
   </cols>
   <sheetData>
@@ -1348,17 +1414,17 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1">
-        <v>4555833.73177077</v>
-      </c>
-      <c r="F2" s="2">
-        <v>45743.8700254424</v>
-      </c>
-      <c r="G2" s="2">
-        <v>45743.8700709952</v>
-      </c>
-      <c r="H2" s="2">
-        <v>45743.8700899832</v>
+      <c r="E2">
+        <v>4555833.732</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.0366921296296296</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.0367372685185185</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.0367569444444444</v>
       </c>
       <c r="I2">
         <v>5.576321</v>
@@ -1380,17 +1446,17 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1">
-        <v>4505743.5752147</v>
-      </c>
-      <c r="F3" s="2">
-        <v>45743.8700900465</v>
-      </c>
-      <c r="G3" s="2">
-        <v>45743.8701455149</v>
-      </c>
-      <c r="H3" s="2">
-        <v>45743.8701531884</v>
+      <c r="E3">
+        <v>4505743.575</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.0367569444444444</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.0368125</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.0368194444444444</v>
       </c>
       <c r="I3">
         <v>5.455453</v>
@@ -1412,17 +1478,17 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1">
-        <v>4508049.56071899</v>
-      </c>
-      <c r="F4" s="2">
-        <v>45743.8701532368</v>
-      </c>
-      <c r="G4" s="2">
-        <v>45743.8702005164</v>
-      </c>
-      <c r="H4" s="2">
-        <v>45743.8702171218</v>
+      <c r="E4">
+        <v>4508049.561</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.0368194444444444</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.0368668981481481</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.0368842592592593</v>
       </c>
       <c r="I4">
         <v>5.519669</v>
@@ -1444,17 +1510,17 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1">
-        <v>4520449.2277995</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45743.8702171673</v>
-      </c>
-      <c r="G5" s="2">
-        <v>45743.8702419152</v>
-      </c>
-      <c r="H5" s="2">
-        <v>45743.8702814933</v>
+      <c r="E5">
+        <v>4520449.228</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.0368842592592593</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.0369085648148148</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.0369479166666667</v>
       </c>
       <c r="I5">
         <v>5.557768</v>
@@ -1476,17 +1542,17 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1">
-        <v>4473343.41806454</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45743.8702815403</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45743.8703163586</v>
-      </c>
-      <c r="H6" s="2">
-        <v>45743.8703452792</v>
+      <c r="E6">
+        <v>4473343.418</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.0369479166666667</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.0369826388888889</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.0370115740740741</v>
       </c>
       <c r="I6">
         <v>5.507041</v>
@@ -1508,17 +1574,17 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="1">
-        <v>4504784.83482121</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45743.8703453241</v>
-      </c>
-      <c r="G7" s="2">
-        <v>45743.8703648704</v>
-      </c>
-      <c r="H7" s="2">
-        <v>45743.8704093506</v>
+      <c r="E7">
+        <v>4504784.835</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.0370115740740741</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.03703125</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.0370763888888889</v>
       </c>
       <c r="I7">
         <v>5.531891</v>
@@ -1540,17 +1606,17 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1">
-        <v>4457935.099927</v>
-      </c>
-      <c r="F8" s="2">
-        <v>45743.8704093983</v>
-      </c>
-      <c r="G8" s="2">
-        <v>45743.8704299352</v>
-      </c>
-      <c r="H8" s="2">
-        <v>45743.8704744668</v>
+      <c r="E8">
+        <v>4457935.1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.0370763888888889</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.0370960648148148</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.0371412037037037</v>
       </c>
       <c r="I8">
         <v>5.621921</v>
@@ -1572,17 +1638,17 @@
       <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1">
-        <v>4503674.0993241</v>
-      </c>
-      <c r="F9" s="2">
-        <v>45743.870474512</v>
-      </c>
-      <c r="G9" s="2">
-        <v>45743.8705147582</v>
-      </c>
-      <c r="H9" s="2">
-        <v>45743.8705390384</v>
+      <c r="E9">
+        <v>4503674.099</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.0371412037037037</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.037181712962963</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.0372060185185185</v>
       </c>
       <c r="I9">
         <v>5.575086</v>
@@ -1604,17 +1670,17 @@
       <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1">
-        <v>4434481.5834843</v>
-      </c>
-      <c r="F10" s="2">
-        <v>45743.8705390849</v>
-      </c>
-      <c r="G10" s="2">
-        <v>45743.8705799228</v>
-      </c>
-      <c r="H10" s="2">
-        <v>45743.8706031803</v>
+      <c r="E10">
+        <v>4434481.583</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.0372060185185185</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.0372465277777778</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.0372696759259259</v>
       </c>
       <c r="I10">
         <v>5.537846</v>
@@ -1636,17 +1702,17 @@
       <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1">
-        <v>4532011.33200236</v>
-      </c>
-      <c r="F11" s="2">
-        <v>45743.8706032333</v>
-      </c>
-      <c r="G11" s="2">
-        <v>45743.8706568344</v>
-      </c>
-      <c r="H11" s="2">
-        <v>45743.8706679494</v>
+      <c r="E11">
+        <v>4532011.332</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.0372696759259259</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.0373240740740741</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.0373344907407407</v>
       </c>
       <c r="I11">
         <v>5.591477</v>
@@ -1660,14 +1726,9 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <f>AVERAGE(E2:E11)</f>
-        <v>4499630.64631275</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+        <v>4499630.646</v>
+      </c>
       <c r="J12">
-        <f>AVERAGE(J2:J11)</f>
         <v>3.305971</v>
       </c>
     </row>
@@ -1676,14 +1737,9 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <f>MAX(E2:E12)</f>
-        <v>4555833.73177077</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+        <v>4555833.732</v>
+      </c>
       <c r="J13">
-        <f>MAX(J2:J12)</f>
         <v>4.792467</v>
       </c>
     </row>
@@ -1692,21 +1748,11 @@
         <v>24</v>
       </c>
       <c r="E14">
-        <f>MIN(E2:E13)</f>
-        <v>4434481.5834843</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+        <v>4434481.583</v>
+      </c>
       <c r="J14">
-        <f>MIN(J2:J13)</f>
         <v>1.688802</v>
       </c>
-    </row>
-    <row r="15" spans="6:8">
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
@@ -1721,17 +1767,17 @@
       <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="1">
-        <v>4529867.44824402</v>
-      </c>
-      <c r="F16" s="2">
-        <v>45743.8709993106</v>
-      </c>
-      <c r="G16" s="2">
-        <v>45743.8710519845</v>
-      </c>
-      <c r="H16" s="2">
-        <v>45743.8710635478</v>
+      <c r="E16">
+        <v>4529867.448</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.0376655092592593</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.03771875</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.0377303240740741</v>
       </c>
       <c r="I16">
         <v>5.550094</v>
@@ -1753,17 +1799,17 @@
       <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="1">
-        <v>4499991.29207564</v>
-      </c>
-      <c r="F17" s="2">
-        <v>45743.8710636124</v>
-      </c>
-      <c r="G17" s="2">
-        <v>45743.87109594</v>
-      </c>
-      <c r="H17" s="2">
-        <v>45743.8711279007</v>
+      <c r="E17">
+        <v>4499991.292</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.0377303240740741</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.0377627314814815</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.0377951388888889</v>
       </c>
       <c r="I17">
         <v>5.554507</v>
@@ -1785,17 +1831,17 @@
       <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="1">
-        <v>4533732.2322193</v>
-      </c>
-      <c r="F18" s="2">
-        <v>45743.8711279481</v>
-      </c>
-      <c r="G18" s="2">
-        <v>45743.871138845</v>
-      </c>
-      <c r="H18" s="2">
-        <v>45743.8711930082</v>
+      <c r="E18">
+        <v>4533732.232</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.0377951388888889</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.0378055555555556</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.0378599537037037</v>
       </c>
       <c r="I18">
         <v>5.6212</v>
@@ -1817,17 +1863,17 @@
       <c r="D19" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="1">
-        <v>4469733.61013719</v>
-      </c>
-      <c r="F19" s="2">
-        <v>45743.8711930541</v>
-      </c>
-      <c r="G19" s="2">
-        <v>45743.8712449329</v>
-      </c>
-      <c r="H19" s="2">
-        <v>45743.871258818</v>
+      <c r="E19">
+        <v>4469733.61</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.0378599537037037</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.037912037037037</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.0379259259259259</v>
       </c>
       <c r="I19">
         <v>5.682002</v>
@@ -1849,17 +1895,17 @@
       <c r="D20" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="1">
-        <v>4413815.80875023</v>
-      </c>
-      <c r="F20" s="2">
-        <v>45743.8712588624</v>
-      </c>
-      <c r="G20" s="2">
-        <v>45743.8713043282</v>
-      </c>
-      <c r="H20" s="2">
-        <v>45743.8713246822</v>
+      <c r="E20">
+        <v>4413815.809</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.0379259259259259</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.0379710648148148</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.0379918981481481</v>
       </c>
       <c r="I20">
         <v>5.686837</v>
@@ -1881,17 +1927,17 @@
       <c r="D21" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="1">
-        <v>4496857.54666824</v>
-      </c>
-      <c r="F21" s="2">
-        <v>45743.8713247311</v>
-      </c>
-      <c r="G21" s="2">
-        <v>45743.8713674632</v>
-      </c>
-      <c r="H21" s="2">
-        <v>45743.8713894859</v>
+      <c r="E21">
+        <v>4496857.547</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.0379918981481481</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.0380335648148148</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.038056712962963</v>
       </c>
       <c r="I21">
         <v>5.59482</v>
@@ -1913,17 +1959,17 @@
       <c r="D22" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="1">
-        <v>4426934.13336208</v>
-      </c>
-      <c r="F22" s="2">
-        <v>45743.8713895313</v>
-      </c>
-      <c r="G22" s="2">
-        <v>45743.8713991294</v>
-      </c>
-      <c r="H22" s="2">
-        <v>45743.8714556253</v>
+      <c r="E22">
+        <v>4426934.133</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.038056712962963</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.0380659722222222</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.0381226851851852</v>
       </c>
       <c r="I22">
         <v>5.710519</v>
@@ -1945,17 +1991,17 @@
       <c r="D23" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="1">
-        <v>4488673.1537477</v>
-      </c>
-      <c r="F23" s="2">
-        <v>45743.8714556697</v>
-      </c>
-      <c r="G23" s="2">
-        <v>45743.8714778628</v>
-      </c>
-      <c r="H23" s="2">
-        <v>45743.8715209251</v>
+      <c r="E23">
+        <v>4488673.154</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.0381226851851852</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.0381446759259259</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.0381875</v>
       </c>
       <c r="I23">
         <v>5.63807</v>
@@ -1977,17 +2023,17 @@
       <c r="D24" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="1">
-        <v>4470563.17823084</v>
-      </c>
-      <c r="F24" s="2">
-        <v>45743.8715209787</v>
-      </c>
-      <c r="G24" s="2">
-        <v>45743.8715672819</v>
-      </c>
-      <c r="H24" s="2">
-        <v>45743.8715852588</v>
+      <c r="E24">
+        <v>4470563.178</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.0381875</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.0382337962962963</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.0382523148148148</v>
       </c>
       <c r="I24">
         <v>5.553806</v>
@@ -2009,17 +2055,17 @@
       <c r="D25" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="1">
-        <v>4476215.7816676</v>
-      </c>
-      <c r="F25" s="2">
-        <v>45743.8715853054</v>
-      </c>
-      <c r="G25" s="2">
-        <v>45743.8715922471</v>
-      </c>
-      <c r="H25" s="2">
-        <v>45743.8716509097</v>
+      <c r="E25">
+        <v>4476215.782</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.0382523148148148</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.0382592592592593</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.0383171296296296</v>
       </c>
       <c r="I25">
         <v>5.668214</v>
@@ -2033,11 +2079,9 @@
         <v>22</v>
       </c>
       <c r="E26">
-        <f>AVERAGE(E16:E25)</f>
-        <v>4480638.41851028</v>
+        <v>4480638.419</v>
       </c>
       <c r="J26">
-        <f>AVERAGE(J16:J25)</f>
         <v>2.7735403</v>
       </c>
     </row>
@@ -2046,11 +2090,9 @@
         <v>23</v>
       </c>
       <c r="E27">
-        <f>MAX(E16:E26)</f>
-        <v>4533732.2322193</v>
+        <v>4533732.232</v>
       </c>
       <c r="J27">
-        <f>MAX(J16:J26)</f>
         <v>4.551032</v>
       </c>
     </row>
@@ -2059,12 +2101,808 @@
         <v>24</v>
       </c>
       <c r="E28">
-        <f>MIN(E16:E27)</f>
-        <v>4413815.80875023</v>
+        <v>4413815.809</v>
       </c>
       <c r="J28">
-        <f>MIN(J16:J27)</f>
         <v>0.599761</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8">
+      <c r="E29" s="2"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>5513</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="2">
+        <v>18794467964.5155</v>
+      </c>
+      <c r="F30" s="1">
+        <v>45744.4575166438</v>
+      </c>
+      <c r="G30" s="1">
+        <v>45744.4575956609</v>
+      </c>
+      <c r="H30" s="1">
+        <v>45744.4576221531</v>
+      </c>
+      <c r="I30">
+        <v>9.115998</v>
+      </c>
+      <c r="J30">
+        <v>6.827076</v>
+      </c>
+      <c r="K30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>5513</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="2">
+        <v>30859094547.7589</v>
+      </c>
+      <c r="F31" s="1">
+        <v>45744.4576222402</v>
+      </c>
+      <c r="G31" s="1">
+        <v>45744.4576235063</v>
+      </c>
+      <c r="H31" s="1">
+        <v>45744.4577283395</v>
+      </c>
+      <c r="I31">
+        <v>9.166984</v>
+      </c>
+      <c r="J31">
+        <v>0.109394</v>
+      </c>
+      <c r="K31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>5513</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="2">
+        <v>18256296087.9455</v>
+      </c>
+      <c r="F32" s="1">
+        <v>45744.4577283899</v>
+      </c>
+      <c r="G32" s="1">
+        <v>45744.4577678094</v>
+      </c>
+      <c r="H32" s="1">
+        <v>45744.4578318737</v>
+      </c>
+      <c r="I32">
+        <v>8.941001</v>
+      </c>
+      <c r="J32">
+        <v>3.405846</v>
+      </c>
+      <c r="K32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>5513</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5810545616.3202</v>
+      </c>
+      <c r="F33" s="1">
+        <v>45744.457831922</v>
+      </c>
+      <c r="G33" s="1">
+        <v>45744.4579231926</v>
+      </c>
+      <c r="H33" s="1">
+        <v>45744.4579353884</v>
+      </c>
+      <c r="I33">
+        <v>8.939495</v>
+      </c>
+      <c r="J33">
+        <v>7.885774</v>
+      </c>
+      <c r="K33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>5513</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="2">
+        <v>12658206418.1054</v>
+      </c>
+      <c r="F34" s="1">
+        <v>45744.4579354343</v>
+      </c>
+      <c r="G34" s="1">
+        <v>45744.4580224322</v>
+      </c>
+      <c r="H34" s="1">
+        <v>45744.4580432459</v>
+      </c>
+      <c r="I34">
+        <v>9.314922</v>
+      </c>
+      <c r="J34">
+        <v>7.516615</v>
+      </c>
+      <c r="K34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>5513</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="2">
+        <v>34096295032.1226</v>
+      </c>
+      <c r="F35" s="1">
+        <v>45744.4580432925</v>
+      </c>
+      <c r="G35" s="1">
+        <v>45744.4581444859</v>
+      </c>
+      <c r="H35" s="1">
+        <v>45744.4581499816</v>
+      </c>
+      <c r="I35">
+        <v>9.217937</v>
+      </c>
+      <c r="J35">
+        <v>8.743113</v>
+      </c>
+      <c r="K35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>5513</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="2">
+        <v>15556637352.655</v>
+      </c>
+      <c r="F36" s="1">
+        <v>45744.4581500295</v>
+      </c>
+      <c r="G36" s="1">
+        <v>45744.4582409154</v>
+      </c>
+      <c r="H36" s="1">
+        <v>45744.458255059</v>
+      </c>
+      <c r="I36">
+        <v>9.074549</v>
+      </c>
+      <c r="J36">
+        <v>7.852537</v>
+      </c>
+      <c r="K36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>5513</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="2">
+        <v>4532733138.25334</v>
+      </c>
+      <c r="F37" s="1">
+        <v>45744.4582551119</v>
+      </c>
+      <c r="G37" s="1">
+        <v>45744.4582980612</v>
+      </c>
+      <c r="H37" s="1">
+        <v>45744.4583597115</v>
+      </c>
+      <c r="I37">
+        <v>9.037403</v>
+      </c>
+      <c r="J37">
+        <v>3.710824</v>
+      </c>
+      <c r="K37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>5513</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="2">
+        <v>25973657808.2117</v>
+      </c>
+      <c r="F38" s="1">
+        <v>45744.4583597622</v>
+      </c>
+      <c r="G38" s="1">
+        <v>45744.4583831314</v>
+      </c>
+      <c r="H38" s="1">
+        <v>45744.4584672774</v>
+      </c>
+      <c r="I38">
+        <v>9.289314</v>
+      </c>
+      <c r="J38">
+        <v>2.019098</v>
+      </c>
+      <c r="K38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>5513</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="2">
+        <v>25540156058.1685</v>
+      </c>
+      <c r="F39" s="1">
+        <v>45744.4584673253</v>
+      </c>
+      <c r="G39" s="1">
+        <v>45744.4585357841</v>
+      </c>
+      <c r="H39" s="1">
+        <v>45744.4585758654</v>
+      </c>
+      <c r="I39">
+        <v>9.377864</v>
+      </c>
+      <c r="J39">
+        <v>5.914846</v>
+      </c>
+      <c r="K39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10">
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40">
+        <f>AVERAGE(E30:E39)</f>
+        <v>19207809002.4057</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="J40">
+        <f>AVERAGE(J30:J39)</f>
+        <v>5.3985123</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10">
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41">
+        <f>MAX(E30:E39)</f>
+        <v>34096295032.1226</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="J41">
+        <f>MAX(J30:J39)</f>
+        <v>8.743113</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10">
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42">
+        <f>MIN(E30:E39)</f>
+        <v>4532733138.25334</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="J42">
+        <f>MIN(J30:J39)</f>
+        <v>0.109394</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>5513</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1069594131.01134</v>
+      </c>
+      <c r="F44" s="1">
+        <v>45744.4590265483</v>
+      </c>
+      <c r="G44" s="1">
+        <v>45744.459027758</v>
+      </c>
+      <c r="H44" s="1">
+        <v>45744.4591304254</v>
+      </c>
+      <c r="I44">
+        <v>8.974985</v>
+      </c>
+      <c r="J44">
+        <v>0.104522</v>
+      </c>
+      <c r="K44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>5513</v>
+      </c>
+      <c r="D45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="2">
+        <v>10890645815.3783</v>
+      </c>
+      <c r="F45" s="1">
+        <v>45744.4591304856</v>
+      </c>
+      <c r="G45" s="1">
+        <v>45744.4591313883</v>
+      </c>
+      <c r="H45" s="1">
+        <v>45744.4592368993</v>
+      </c>
+      <c r="I45">
+        <v>9.194145</v>
+      </c>
+      <c r="J45">
+        <v>0.077991</v>
+      </c>
+      <c r="K45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>5513</v>
+      </c>
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1026773421.26879</v>
+      </c>
+      <c r="F46" s="1">
+        <v>45744.459236949</v>
+      </c>
+      <c r="G46" s="1">
+        <v>45744.4592379508</v>
+      </c>
+      <c r="H46" s="1">
+        <v>45744.4593412384</v>
+      </c>
+      <c r="I46">
+        <v>9.010608</v>
+      </c>
+      <c r="J46">
+        <v>0.08656</v>
+      </c>
+      <c r="K46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>5513</v>
+      </c>
+      <c r="D47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="2">
+        <v>318523918.875791</v>
+      </c>
+      <c r="F47" s="1">
+        <v>45744.4593412838</v>
+      </c>
+      <c r="G47" s="1">
+        <v>45744.4593422217</v>
+      </c>
+      <c r="H47" s="1">
+        <v>45744.4594470116</v>
+      </c>
+      <c r="I47">
+        <v>9.134879</v>
+      </c>
+      <c r="J47">
+        <v>0.081031</v>
+      </c>
+      <c r="K47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>5513</v>
+      </c>
+      <c r="D48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="2">
+        <v>33954125067.8445</v>
+      </c>
+      <c r="F48" s="1">
+        <v>45744.4594470594</v>
+      </c>
+      <c r="G48" s="1">
+        <v>45744.4594562942</v>
+      </c>
+      <c r="H48" s="1">
+        <v>45744.4595546235</v>
+      </c>
+      <c r="I48">
+        <v>9.29354</v>
+      </c>
+      <c r="J48">
+        <v>0.79789</v>
+      </c>
+      <c r="K48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>5513</v>
+      </c>
+      <c r="D49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="2">
+        <v>4754343.56796941</v>
+      </c>
+      <c r="F49" s="1">
+        <v>45744.4595546725</v>
+      </c>
+      <c r="G49" s="1">
+        <v>45744.4595557439</v>
+      </c>
+      <c r="H49" s="1">
+        <v>45744.4596613195</v>
+      </c>
+      <c r="I49">
+        <v>9.214304</v>
+      </c>
+      <c r="J49">
+        <v>0.092577</v>
+      </c>
+      <c r="K49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>5513</v>
+      </c>
+      <c r="D50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="2">
+        <v>41749152.2090221</v>
+      </c>
+      <c r="F50" s="1">
+        <v>45744.4596613654</v>
+      </c>
+      <c r="G50" s="1">
+        <v>45744.4596622185</v>
+      </c>
+      <c r="H50" s="1">
+        <v>45744.4597667356</v>
+      </c>
+      <c r="I50">
+        <v>9.103984</v>
+      </c>
+      <c r="J50">
+        <v>0.073709</v>
+      </c>
+      <c r="K50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>5513</v>
+      </c>
+      <c r="D51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="2">
+        <v>130737959.73508</v>
+      </c>
+      <c r="F51" s="1">
+        <v>45744.4597667803</v>
+      </c>
+      <c r="G51" s="1">
+        <v>45744.459767676</v>
+      </c>
+      <c r="H51" s="1">
+        <v>45744.4598706235</v>
+      </c>
+      <c r="I51">
+        <v>8.972053</v>
+      </c>
+      <c r="J51">
+        <v>0.077389</v>
+      </c>
+      <c r="K51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>5513</v>
+      </c>
+      <c r="D52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="2">
+        <v>4610464.63701648</v>
+      </c>
+      <c r="F52" s="1">
+        <v>45744.4598706713</v>
+      </c>
+      <c r="G52" s="1">
+        <v>45744.4598715356</v>
+      </c>
+      <c r="H52" s="1">
+        <v>45744.4599759187</v>
+      </c>
+      <c r="I52">
+        <v>9.093372</v>
+      </c>
+      <c r="J52">
+        <v>0.074674</v>
+      </c>
+      <c r="K52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>5513</v>
+      </c>
+      <c r="D53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="2">
+        <v>4604322.56918709</v>
+      </c>
+      <c r="F53" s="1">
+        <v>45744.4599759637</v>
+      </c>
+      <c r="G53" s="1">
+        <v>45744.4599770101</v>
+      </c>
+      <c r="H53" s="1">
+        <v>45744.4600807631</v>
+      </c>
+      <c r="I53">
+        <v>9.054668</v>
+      </c>
+      <c r="J53">
+        <v>0.090403</v>
+      </c>
+      <c r="K53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="4:10">
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54">
+        <f>AVERAGE(E44:E53)</f>
+        <v>4744611859.7097</v>
+      </c>
+      <c r="J54">
+        <f>AVERAGE(J44:J53)</f>
+        <v>0.1556746</v>
+      </c>
+    </row>
+    <row r="55" spans="4:10">
+      <c r="D55" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55">
+        <f>MAX(E44:E53)</f>
+        <v>33954125067.8445</v>
+      </c>
+      <c r="J55">
+        <f>MAX(J44:J53)</f>
+        <v>0.79789</v>
+      </c>
+    </row>
+    <row r="56" spans="4:10">
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56">
+        <f>MIN(E44:E53)</f>
+        <v>4604322.56918709</v>
+      </c>
+      <c r="J56">
+        <f>MIN(J44:J53)</f>
+        <v>0.073709</v>
       </c>
     </row>
   </sheetData>

--- a/Files/ExpResult/Du62-模拟退火算法.xlsx
+++ b/Files/ExpResult/Du62-模拟退火算法.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="137">
   <si>
     <t>实例</t>
   </si>
@@ -345,6 +345,99 @@
   </si>
   <si>
     <t>[array([25, 56, 54, 51, 13, 33]), array([22, 61, 46, 26, 14]), array([12, 27, 53, 49,  9,  4]), array([42,  7, 16, 50,  6]), array([20, 40,  5, 30, 58, 35, 52, 39, 47, 36, 21, 31]), array([23,  3,  2, 44, 24, 18]), array([62, 11, 28, 43, 59,  8, 32, 15]), array([10, 45, 60, 38, 17, 48]), array([ 1, 41, 37, 29, 57, 55, 19, 34])]</t>
+  </si>
+  <si>
+    <t>[array([33,  9, 24, 44, 43, 36, 22, 53, 15]), array([19, 59, 39,  7,  3, 55,  6, 25]), array([23, 38, 11, 12, 30, 28,  5, 14, 18]), array([41, 51, 57, 52,  8, 62]), array([27, 26, 35, 31, 29]), array([46, 60,  2, 16, 50, 56, 13,  4]), array([48, 49, 34, 10, 40, 32]), array([47, 21, 58, 61,  1]), array([17, 20, 54, 45, 42, 37])]</t>
+  </si>
+  <si>
+    <t>包含修复动作算子-k分初始解v3</t>
+  </si>
+  <si>
+    <t>[array([14, 11, 19,  7, 53, 41]), array([17, 13, 62, 40, 54,  4, 25, 30]), array([ 9, 33, 38, 20,  5, 50]), array([15, 58, 57,  8, 59, 27,  2, 47, 49]), array([48, 24, 61, 35, 56, 39, 60, 29]), array([32, 22, 18, 34, 28, 51, 42]), array([37, 16, 26, 36, 52, 45, 43]), array([55, 46,  3, 23, 12,  6,  1, 31, 21, 44, 10])]</t>
+  </si>
+  <si>
+    <t>[array([ 7, 12, 28, 49, 62, 33, 26]), array([25, 17, 61, 27, 51, 46]), array([15, 57, 29, 50, 10, 34, 48]), array([21, 45, 58,  2, 41, 59, 22]), array([42, 37, 24, 18, 16, 31]), array([11, 40, 38,  8, 56,  1, 19, 47,  6]), array([13, 36, 23, 32,  5, 39, 55,  3, 54, 44]), array([53,  9, 35, 43, 14, 30, 60, 20, 52,  4])]</t>
+  </si>
+  <si>
+    <t>[array([51, 47, 20, 54, 10,  7]), array([43, 26,  4, 41, 18, 14]), array([28,  3, 12, 16, 39, 50, 24,  8, 59]), array([55, 60, 61, 30, 25, 52]), array([23, 27, 38, 48, 11, 21, 29,  1, 37]), array([ 6, 36, 57, 34, 35,  2, 42, 49, 31, 19]), array([56, 40,  5, 46, 32, 44, 17]), array([33, 22, 53, 62, 15, 45, 13, 58,  9])]</t>
+  </si>
+  <si>
+    <t>[array([40, 43, 18,  5, 28, 53, 14, 37, 30,  9]), array([50, 41, 44, 56, 57, 11,  4]), array([ 7, 19,  3, 35, 45, 60, 33,  8]), array([34, 59, 24, 16, 55, 54]), array([23, 58,  2, 22, 31,  6]), array([21, 51, 12, 20, 52, 36, 42, 27,  1, 25]), array([47, 10, 62, 32, 13]), array([46, 17, 38, 61, 48, 49, 29, 15, 26, 39])]</t>
+  </si>
+  <si>
+    <t>[array([38, 13, 19, 58, 40, 18,  5, 54]), array([17, 36, 34, 48, 42]), array([33, 16, 43, 30, 12, 59, 14]), array([10,  9, 45, 35, 29, 56, 41]), array([23, 61, 11,  2, 37,  4, 50,  1]), array([ 7,  3, 44, 32, 52, 28, 57, 24]), array([20, 25, 39, 51, 27, 21]), array([62, 55, 60, 26, 49,  8]), array([ 6, 47, 46, 15, 22, 53, 31])]</t>
+  </si>
+  <si>
+    <t>[array([18, 34, 57, 27,  1, 62]), array([23, 14,  3, 19, 28, 16, 54]), array([38,  7, 24, 21, 10, 59]), array([58, 36,  5,  2, 26, 43, 52, 45]), array([37, 61, 55, 29, 41, 11, 56, 35, 60]), array([13, 50, 22, 31, 32, 42]), array([40, 20, 17, 12, 48]), array([ 6, 15, 51, 30, 44, 53, 33]), array([49, 46, 25, 47,  8,  4, 39,  9])]</t>
+  </si>
+  <si>
+    <t>[array([46, 28,  6, 15, 45, 47, 33]), array([32, 19, 35, 36,  7, 10]), array([61, 56, 11, 26, 52, 12]), array([30, 40, 23, 21, 13,  1, 44]), array([58,  2, 57, 18, 43, 27,  4, 16, 41, 25]), array([51, 59,  5, 50, 34, 48, 38]), array([14, 20, 53, 37, 54,  3]), array([31, 29,  8, 55, 17]), array([ 9, 39, 49, 62, 42, 22, 60, 24])]</t>
+  </si>
+  <si>
+    <t>[array([54, 28, 62, 17, 48, 37,  6, 39]), array([51, 23, 38, 35, 36, 56, 21, 26, 32]), array([ 4, 52, 43, 31, 58, 33]), array([34, 60, 53, 44, 24, 40]), array([ 1, 61, 45, 55,  5,  8, 14]), array([42, 12, 27, 57, 47,  2]), array([18, 46, 50, 16, 25, 30, 22]), array([10, 11, 49, 20, 59, 13]), array([41,  9, 15,  3, 19, 29,  7])]</t>
+  </si>
+  <si>
+    <t>[array([54, 12, 16, 52, 13, 55]), array([33, 39,  5, 34, 62,  7]), array([48, 32, 26,  4, 61, 37, 22, 15]), array([51, 27, 50, 29, 38,  8, 46]), array([49, 42, 41, 20, 31, 36, 43, 21]), array([19, 47,  9, 59, 56, 18, 44, 24, 60, 23]), array([58, 10, 40,  2,  3, 25,  1, 57, 11]), array([14, 53, 35, 28, 45, 17, 30,  6])]</t>
+  </si>
+  <si>
+    <t>[array([48, 54, 39, 31, 46]), array([ 6, 33, 59,  4, 28, 14, 37]), array([20, 15, 49, 51, 32, 47]), array([44, 35,  1, 29, 40, 26, 43, 56, 10, 57, 27, 60]), array([ 8, 36, 58, 16,  9, 19, 11, 61, 17]), array([24, 53, 55, 50, 38,  5]), array([41, 34, 12, 45,  3, 21,  7]), array([62, 22, 18, 25, 52,  2, 13, 42, 23, 30])]</t>
+  </si>
+  <si>
+    <t>[array([55, 17, 44, 51, 39]), array([23, 41, 11, 14, 26, 58]), array([25, 27, 36, 54,  8,  4, 45]), array([40, 13, 32,  5, 33, 34]), array([59, 61, 47, 20,  2, 18, 43, 38]), array([60, 22, 56, 53, 29, 57, 16, 48]), array([ 3, 42, 46, 10, 49, 12, 35, 50, 37]), array([52, 62, 24,  9, 19,  7, 31]), array([15,  1, 28, 21, 30,  6])]</t>
+  </si>
+  <si>
+    <t>[array([49, 26, 23, 40, 54, 47, 33]), array([17, 37, 59, 43, 10, 18, 38]), array([60, 39, 61, 56,  3, 62,  7]), array([58, 21, 16,  8, 50, 36, 27]), array([35, 55, 32, 52, 51, 20, 25, 34]), array([46, 48, 19, 11,  1, 28, 30, 57, 24,  2]), array([12,  5, 29, 15, 42, 44, 53, 13, 31]), array([41,  6,  4, 45, 22, 14,  9])]</t>
+  </si>
+  <si>
+    <t>[array([17, 51, 35,  6, 40]), array([24, 62, 18, 37, 38, 15, 57, 26]), array([45, 49, 25, 58, 28,  8, 61, 13,  2]), array([33, 22, 30, 16,  3, 11, 12, 27]), array([32, 20, 43, 48, 47,  5, 59]), array([41, 55, 29, 44, 36, 21, 10, 39]), array([19,  1, 34, 54, 23, 42, 14]), array([ 4, 56, 31, 60, 46, 52,  7, 53,  9, 50])]</t>
+  </si>
+  <si>
+    <t>[array([17, 35, 11, 26, 60, 38, 15, 46, 30]), array([62, 27, 57, 34, 16, 31, 29]), array([33, 45,  1, 43,  3,  5, 18,  2]), array([14, 49, 21, 20, 52, 12, 22, 10, 55]), array([19, 37, 48, 44, 42, 39, 40, 50]), array([47, 24, 61, 59,  4, 54, 23]), array([ 9, 58, 56,  7, 13, 25, 53]), array([32, 51,  8,  6, 36, 28, 41])]</t>
+  </si>
+  <si>
+    <t>[array([48, 26, 36, 25, 44,  9]), array([33, 40, 21, 50,  1, 37, 46, 59]), array([58, 29, 47, 35, 12, 31, 17]), array([ 6, 56, 11, 38, 52, 15]), array([43, 34, 41,  5, 27, 18, 61, 20,  2]), array([32, 62, 23, 55,  3, 30]), array([53, 19, 22, 16, 54,  4, 13, 60]), array([51, 57, 42, 14, 10, 28]), array([45,  7, 24, 39,  8, 49])]</t>
+  </si>
+  <si>
+    <t>[array([ 7, 21, 46,  8, 49, 17, 39,  3,  4, 26]), array([12,  5, 57, 28, 52, 47, 50, 44, 27, 24]), array([ 9, 20, 18, 41, 40, 36, 55]), array([60, 33, 45, 13, 48, 32, 25, 29, 56]), array([51, 22, 59, 43, 16, 11, 35, 34,  1, 30, 54]), array([31, 15,  2, 61, 58, 23, 10]), array([14, 19, 53, 62, 38, 37, 42,  6])]</t>
+  </si>
+  <si>
+    <t>[array([42, 17, 14, 49, 51]), array([46, 34, 30,  9, 37,  4]), array([31, 15,  7, 58, 60, 54]), array([22, 56, 28, 12,  2, 33, 57, 19]), array([36,  5, 40, 50,  3, 59, 32]), array([21, 41,  1, 20, 29, 18,  8, 48, 25]), array([39, 16, 10,  6, 61, 23, 53]), array([11, 43, 13, 52, 27, 26, 35]), array([44, 55, 45, 47, 24, 62, 38])]</t>
+  </si>
+  <si>
+    <t>[array([55, 32, 51, 45, 23, 48]), array([39, 11,  1, 12, 26, 57, 15, 54]), array([41, 10, 56,  3, 58, 37]), array([59, 46, 35,  8, 36, 61]), array([ 9,  5, 38, 40, 62, 34, 53]), array([14, 60, 24,  2, 20,  4, 31]), array([49, 21, 50, 25,  6, 28, 13]), array([47, 17, 44, 18, 30, 29, 22]), array([43, 33, 19, 16, 27, 52, 42,  7])]</t>
+  </si>
+  <si>
+    <t>[array([ 5, 46, 30, 59, 22, 17]), array([42, 15, 49, 57, 19, 13, 34, 26]), array([ 9, 51, 31, 43, 29, 50, 12, 48, 60, 47, 11]), array([33,  1, 32, 41, 62, 20, 25]), array([40, 23, 52, 21, 56, 37,  6]), array([ 3, 16, 36, 53, 18, 61,  7, 38, 28]), array([ 4, 27, 54,  2, 35, 44, 24, 55]), array([14, 58, 39,  8, 10, 45])]</t>
+  </si>
+  <si>
+    <t>[array([47, 59, 35, 60, 53, 13]), array([29, 23, 21,  5, 56, 14]), array([17, 32, 18, 20, 37, 55]), array([16, 19, 40, 11, 49, 28,  3, 24, 30, 46, 48]), array([45, 43, 61,  4, 62]), array([52, 41, 22,  8, 44, 50,  9, 39]), array([31, 58, 10,  6, 36,  1]), array([ 7, 26, 42, 57, 38, 54, 15, 51]), array([34, 27,  2, 12, 25, 33])]</t>
+  </si>
+  <si>
+    <t>[array([15, 52, 42, 30, 17, 12,  5, 58,  7, 41]), array([19, 26, 28,  1,  2, 60, 40]), array([ 8, 29, 32,  9, 23, 46]), array([37, 24, 35, 21,  4, 18, 53]), array([44, 57, 45, 49,  3, 51, 54]), array([48, 59, 20, 43, 10, 33]), array([27, 38, 61, 34, 22]), array([14, 36, 47, 56, 50,  6, 11, 39]), array([55, 62, 16, 13, 25, 31])]</t>
+  </si>
+  <si>
+    <t>[array([31, 23, 56, 46, 59, 44, 16, 53]), array([14, 38, 20,  8, 26, 18, 32, 58, 27, 51, 37]), array([10, 40, 25,  5, 22]), array([28, 61, 29, 45, 43, 24]), array([35, 39,  2, 34, 33, 21, 47]), array([ 9, 41, 52,  4, 49,  6, 15]), array([19, 36, 13,  1, 12, 42, 54, 57, 60]), array([17, 48, 62, 11,  3, 30, 50,  7, 55])]</t>
+  </si>
+  <si>
+    <t>[array([54,  6, 55, 56, 36, 42, 19, 34,  4, 41]), array([11, 48, 22, 40, 20, 51,  3, 13, 14, 24, 28]), array([33, 60, 26, 32,  8, 27, 23, 18, 59]), array([17,  9, 21, 16, 58, 49]), array([30, 43, 45, 12, 10, 50, 37]), array([57,  2,  5, 39, 46,  1, 25,  7, 52, 31]), array([15, 62, 38, 29, 47, 61, 44, 53, 35])]</t>
+  </si>
+  <si>
+    <t>[array([57, 25, 62, 15, 50, 59, 31, 17]), array([ 4, 38, 41, 13, 58, 28, 35, 60, 24]), array([32, 36, 20, 27, 55, 52]), array([46, 61, 56, 48, 16,  5,  3, 37, 10, 23]), array([30, 19, 26, 12, 29, 45, 49, 39, 40]), array([ 8, 54, 21,  2, 43,  6]), array([11, 42, 18, 47, 44,  9,  7]), array([22, 33, 34, 51, 14, 53,  1])]</t>
+  </si>
+  <si>
+    <t>[array([30, 11, 36, 46, 61, 41, 51, 27, 32]), array([ 4, 13,  9, 57, 22, 53]), array([37, 23, 43, 50, 60, 28, 29]), array([15, 59, 21, 38,  1, 20, 48, 31]), array([10,  2, 47, 24,  5, 58, 35,  6]), array([49,  3, 25, 34, 18, 19,  8, 54]), array([42, 44, 12, 26, 14, 55, 52, 17]), array([ 7, 39, 40, 56, 62, 16, 33, 45])]</t>
+  </si>
+  <si>
+    <t>[array([32, 62, 49, 35, 15, 47, 14]), array([ 3, 30, 43,  2,  9, 46, 60, 44, 17, 50]), array([12, 40,  5, 26, 29, 48]), array([38, 19, 10, 27, 21, 16, 42, 55]), array([23,  1, 61,  7, 39, 56, 13]), array([25, 41, 52,  4, 51, 58, 20, 45,  6]), array([33, 24, 18, 28, 37, 53]), array([36, 54, 57, 59, 11, 22, 34, 31,  8])]</t>
+  </si>
+  <si>
+    <t>[array([45, 37, 15,  9,  7,  6]), array([14, 46, 57, 49, 43, 55]), array([12, 10, 27, 35, 62, 20]), array([60, 17, 21, 18, 51,  5, 28]), array([39, 22, 42, 54, 53, 36, 48]), array([32,  2, 52,  3, 56, 25, 61]), array([33, 30, 31, 34, 16, 11, 40, 41,  8, 19, 58, 44]), array([50,  4, 24,  1, 59, 38]), array([29, 13, 23, 26, 47])]</t>
+  </si>
+  <si>
+    <t>[array([40, 45, 35, 57, 38,  8, 17, 25]), array([41, 62, 49, 34,  5, 10]), array([ 1, 23, 54, 61,  7, 15, 52, 55]), array([32, 19, 24, 50,  3, 27]), array([18, 59,  2, 44, 16,  4]), array([ 9, 20, 31, 33, 56, 12]), array([26, 21, 43, 11, 42, 13, 60, 53, 37]), array([ 6, 22, 29, 39, 30, 46, 58]), array([51, 36, 28, 48, 47, 14])]</t>
+  </si>
+  <si>
+    <t>[array([45,  8, 22, 62, 14, 35]), array([ 6, 21, 38, 26, 13]), array([49, 53, 27, 18,  4]), array([43, 44,  2, 12,  5, 34]), array([28,  7, 37, 58, 56, 61, 59, 15]), array([17, 29,  1, 50, 20, 54]), array([40, 39, 47, 31, 48]), array([30, 41, 16, 60, 36, 33, 46]), array([55, 51, 42, 11, 32, 57, 52, 10]), array([ 9, 24, 25, 23, 19,  3])]</t>
   </si>
 </sst>
 </file>
@@ -988,21 +1081,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="47" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1349,10 +1433,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="$A32:$XFD61"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A92" sqref="$A92:$XFD121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1413,13 +1497,13 @@
       <c r="E2">
         <v>4493105.08221798</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>45768.8730977546</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>45768.8731453125</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>45768.8731585648</v>
       </c>
       <c r="I2">
@@ -1448,13 +1532,13 @@
       <c r="E3">
         <v>4498563.02320185</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>45768.8731592014</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>45768.8731885185</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>45768.8732210648</v>
       </c>
       <c r="I3">
@@ -1483,13 +1567,13 @@
       <c r="E4">
         <v>4481941.52356781</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>45768.8732211921</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>45768.8732512616</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>45768.8732827893</v>
       </c>
       <c r="I4">
@@ -1518,13 +1602,13 @@
       <c r="E5">
         <v>4413767.36208516</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>45768.8732828935</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>45768.8733239468</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>45768.8733457176</v>
       </c>
       <c r="I5">
@@ -1553,13 +1637,13 @@
       <c r="E6">
         <v>4528164.38805678</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>45768.8733458218</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>45768.8733760301</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>45768.8734093055</v>
       </c>
       <c r="I6">
@@ -1588,13 +1672,13 @@
       <c r="E7">
         <v>4509029.61671183</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>45768.8734094097</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>45768.8734637847</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>45768.8734720833</v>
       </c>
       <c r="I7">
@@ -1623,13 +1707,13 @@
       <c r="E8">
         <v>4471019.12174627</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>45768.873472419</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>45768.8735090278</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>45768.8735352431</v>
       </c>
       <c r="I8">
@@ -1658,13 +1742,13 @@
       <c r="E9">
         <v>4478819.23138901</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>45768.8735353588</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>45768.8735385185</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>45768.8735991088</v>
       </c>
       <c r="I9">
@@ -1693,13 +1777,13 @@
       <c r="E10">
         <v>4481092.27735035</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>45768.8735992245</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>45768.8736616782</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>45768.8736622685</v>
       </c>
       <c r="I10">
@@ -1728,13 +1812,13 @@
       <c r="E11">
         <v>4540431.35081484</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>45768.8736623843</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>45768.8736837731</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>45768.8737259144</v>
       </c>
       <c r="I11">
@@ -1763,13 +1847,13 @@
       <c r="E12">
         <v>4467443.1952888</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>45768.8737260301</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>45768.8737480903</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>45768.8737901042</v>
       </c>
       <c r="I12">
@@ -1798,13 +1882,13 @@
       <c r="E13">
         <v>4496724.0109949</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>45768.8737902199</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>45768.8738488657</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>45768.8738535417</v>
       </c>
       <c r="I13">
@@ -1833,13 +1917,13 @@
       <c r="E14">
         <v>4511375.03771182</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>45768.873853669</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>45768.8738856713</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>45768.8739174421</v>
       </c>
       <c r="I14">
@@ -1868,13 +1952,13 @@
       <c r="E15">
         <v>4469675.97837581</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>45768.8739175694</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>45768.8739651042</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>45768.8739815509</v>
       </c>
       <c r="I15">
@@ -1903,13 +1987,13 @@
       <c r="E16">
         <v>4494168.82345845</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>45768.8739816782</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>45768.8740363542</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>45768.8740453357</v>
       </c>
       <c r="I16">
@@ -1938,13 +2022,13 @@
       <c r="E17">
         <v>4435037.795379</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>45768.874045463</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>45768.8740559838</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>45768.874109213</v>
       </c>
       <c r="I17">
@@ -1973,13 +2057,13 @@
       <c r="E18">
         <v>4459383.21566217</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>45768.8741093403</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>45768.874163507</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>45768.874173669</v>
       </c>
       <c r="I18">
@@ -2008,13 +2092,13 @@
       <c r="E19">
         <v>4480237.20554024</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>45768.8741737963</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>45768.8742311805</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>45768.8742383796</v>
       </c>
       <c r="I19">
@@ -2043,13 +2127,13 @@
       <c r="E20">
         <v>4501340.87790347</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>45768.8742385185</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>45768.8742671296</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>45768.8743022685</v>
       </c>
       <c r="I20">
@@ -2078,13 +2162,13 @@
       <c r="E21">
         <v>4510468.24656193</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>45768.8743023958</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>45768.8743442361</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>45768.8743672454</v>
       </c>
       <c r="I21">
@@ -2113,13 +2197,13 @@
       <c r="E22">
         <v>4509441.29827441</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>45768.8743673843</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>45768.8743996991</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>45768.8744315278</v>
       </c>
       <c r="I22">
@@ -2148,13 +2232,13 @@
       <c r="E23">
         <v>4463749.85809257</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>45768.8744316782</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>45768.8744448727</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>45768.8744948264</v>
       </c>
       <c r="I23">
@@ -2183,13 +2267,13 @@
       <c r="E24">
         <v>4415969.29511364</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>45768.8744949653</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>45768.8745503704</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>45768.8745598727</v>
       </c>
       <c r="I24">
@@ -2218,13 +2302,13 @@
       <c r="E25">
         <v>4458034.10403758</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>45768.8745600231</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <v>45768.8746169676</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <v>45768.8746234954</v>
       </c>
       <c r="I25">
@@ -2253,13 +2337,13 @@
       <c r="E26">
         <v>4484854.80838911</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>45768.8746236458</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>45768.8746408565</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>45768.874687963</v>
       </c>
       <c r="I26">
@@ -2288,13 +2372,13 @@
       <c r="E27">
         <v>4476331.48291222</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>45768.8746884028</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <v>45768.8747094329</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>45768.8747531019</v>
       </c>
       <c r="I27">
@@ -2323,13 +2407,13 @@
       <c r="E28">
         <v>4544906.09747388</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>45768.8747532523</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <v>45768.8747792708</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>45768.8748179861</v>
       </c>
       <c r="I28">
@@ -2358,13 +2442,13 @@
       <c r="E29">
         <v>4465796.48135879</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>45768.8748181366</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <v>45768.8748428125</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>45768.8748821644</v>
       </c>
       <c r="I29">
@@ -2393,13 +2477,13 @@
       <c r="E30">
         <v>4526831.83056411</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>45768.8748823148</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <v>45768.8749447107</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <v>45768.8749466782</v>
       </c>
       <c r="I30">
@@ -2428,13 +2512,13 @@
       <c r="E31">
         <v>4519192.27051684</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>45768.8749468287</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <v>45768.8749651505</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>45768.8750112963</v>
       </c>
       <c r="I31">
@@ -2448,2103 +2532,3153 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>5513</v>
+      </c>
+      <c r="D32" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32">
         <v>4501112.08524813</v>
       </c>
-      <c r="F32" s="5">
-        <v>45744.6119330347</v>
-      </c>
-      <c r="G32" s="5">
-        <v>45744.6119562284</v>
-      </c>
-      <c r="H32" s="5">
-        <v>45744.6119971361</v>
-      </c>
-      <c r="I32" s="2">
+      <c r="F32" s="2">
+        <v>45744.6119330324</v>
+      </c>
+      <c r="G32" s="2">
+        <v>45744.6119562269</v>
+      </c>
+      <c r="H32" s="2">
+        <v>45744.6119971412</v>
+      </c>
+      <c r="I32">
         <v>5.53836</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32">
         <v>2.003935</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>5513</v>
+      </c>
+      <c r="D33" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33">
         <v>4467977.1902724</v>
       </c>
-      <c r="F33" s="5">
-        <v>45744.6119972031</v>
-      </c>
-      <c r="G33" s="5">
-        <v>45744.6120397839</v>
-      </c>
-      <c r="H33" s="5">
-        <v>45744.6120598655</v>
-      </c>
-      <c r="I33" s="2">
+      <c r="F33" s="2">
+        <v>45744.6119971991</v>
+      </c>
+      <c r="G33" s="2">
+        <v>45744.6120397801</v>
+      </c>
+      <c r="H33" s="2">
+        <v>45744.6120598611</v>
+      </c>
+      <c r="I33">
         <v>5.414031</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33">
         <v>3.678978</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>5513</v>
+      </c>
+      <c r="D34" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34">
         <v>4494148.18214413</v>
       </c>
-      <c r="F34" s="5">
-        <v>45744.6120599184</v>
-      </c>
-      <c r="G34" s="5">
-        <v>45744.6121060207</v>
-      </c>
-      <c r="H34" s="5">
-        <v>45744.6121244808</v>
-      </c>
-      <c r="I34" s="2">
+      <c r="F34" s="2">
+        <v>45744.612059919</v>
+      </c>
+      <c r="G34" s="2">
+        <v>45744.6121060185</v>
+      </c>
+      <c r="H34" s="2">
+        <v>45744.6121244792</v>
+      </c>
+      <c r="I34">
         <v>5.578191</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34">
         <v>3.983243</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>5513</v>
+      </c>
+      <c r="D35" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35">
         <v>4448413.14673739</v>
       </c>
-      <c r="F35" s="5">
-        <v>45744.6121245346</v>
-      </c>
-      <c r="G35" s="5">
-        <v>45744.6121834742</v>
-      </c>
-      <c r="H35" s="5">
-        <v>45744.6121882187</v>
-      </c>
-      <c r="I35" s="2">
+      <c r="F35" s="2">
+        <v>45744.612124537</v>
+      </c>
+      <c r="G35" s="2">
+        <v>45744.6121834722</v>
+      </c>
+      <c r="H35" s="2">
+        <v>45744.6121882176</v>
+      </c>
+      <c r="I35">
         <v>5.502304</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35">
         <v>5.092381</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>5513</v>
+      </c>
+      <c r="D36" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36">
         <v>4435614.64199763</v>
       </c>
-      <c r="F36" s="5">
-        <v>45744.6121882635</v>
-      </c>
-      <c r="G36" s="5">
-        <v>45744.6122251898</v>
-      </c>
-      <c r="H36" s="5">
-        <v>45744.6122530977</v>
-      </c>
-      <c r="I36" s="2">
+      <c r="F36" s="2">
+        <v>45744.6121882639</v>
+      </c>
+      <c r="G36" s="2">
+        <v>45744.6122251852</v>
+      </c>
+      <c r="H36" s="2">
+        <v>45744.6122531019</v>
+      </c>
+      <c r="I36">
         <v>5.601671</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36">
         <v>3.190434</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>5513</v>
+      </c>
+      <c r="D37" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37">
         <v>4533149.40167308</v>
       </c>
-      <c r="F37" s="5">
-        <v>45744.6122531436</v>
-      </c>
-      <c r="G37" s="5">
-        <v>45744.6122970273</v>
-      </c>
-      <c r="H37" s="5">
-        <v>45744.6123179276</v>
-      </c>
-      <c r="I37" s="2">
+      <c r="F37" s="2">
+        <v>45744.6122531482</v>
+      </c>
+      <c r="G37" s="2">
+        <v>45744.6122970255</v>
+      </c>
+      <c r="H37" s="2">
+        <v>45744.6123179282</v>
+      </c>
+      <c r="I37">
         <v>5.597337</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37">
         <v>3.791546</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="K37" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>5513</v>
+      </c>
+      <c r="D38" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38">
         <v>4507497.71882164</v>
       </c>
-      <c r="F38" s="5">
-        <v>45744.6123179717</v>
-      </c>
-      <c r="G38" s="5">
-        <v>45744.6123685279</v>
-      </c>
-      <c r="H38" s="5">
-        <v>45744.6123825809</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="F38" s="2">
+        <v>45744.6123179745</v>
+      </c>
+      <c r="G38" s="2">
+        <v>45744.6123685301</v>
+      </c>
+      <c r="H38" s="2">
+        <v>45744.612382581</v>
+      </c>
+      <c r="I38">
         <v>5.582238</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38">
         <v>4.368057</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>5513</v>
+      </c>
+      <c r="D39" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39">
         <v>4499452.66666434</v>
       </c>
-      <c r="F39" s="5">
-        <v>45744.6123826347</v>
-      </c>
-      <c r="G39" s="5">
-        <v>45744.6124185525</v>
-      </c>
-      <c r="H39" s="5">
-        <v>45744.61244694</v>
-      </c>
-      <c r="I39" s="2">
+      <c r="F39" s="2">
+        <v>45744.6123826389</v>
+      </c>
+      <c r="G39" s="2">
+        <v>45744.6124185532</v>
+      </c>
+      <c r="H39" s="2">
+        <v>45744.6124469444</v>
+      </c>
+      <c r="I39">
         <v>5.555979</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39">
         <v>3.103301</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K39" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>5513</v>
+      </c>
+      <c r="D40" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40">
         <v>4418054.42176531</v>
       </c>
-      <c r="F40" s="5">
-        <v>45744.6124469863</v>
-      </c>
-      <c r="G40" s="5">
-        <v>45744.6124925766</v>
-      </c>
-      <c r="H40" s="5">
-        <v>45744.6125116553</v>
-      </c>
-      <c r="I40" s="2">
+      <c r="F40" s="2">
+        <v>45744.6124469907</v>
+      </c>
+      <c r="G40" s="2">
+        <v>45744.612492581</v>
+      </c>
+      <c r="H40" s="2">
+        <v>45744.6125116551</v>
+      </c>
+      <c r="I40">
         <v>5.587401</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40">
         <v>3.939001</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>5513</v>
+      </c>
+      <c r="D41" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41">
         <v>4495737.02712055</v>
       </c>
-      <c r="F41" s="5">
-        <v>45744.612511702</v>
-      </c>
-      <c r="G41" s="5">
-        <v>45744.6125743785</v>
-      </c>
-      <c r="H41" s="5">
-        <v>45744.6125763533</v>
-      </c>
-      <c r="I41" s="2">
+      <c r="F41" s="2">
+        <v>45744.6125117014</v>
+      </c>
+      <c r="G41" s="2">
+        <v>45744.612574375</v>
+      </c>
+      <c r="H41" s="2">
+        <v>45744.6125763542</v>
+      </c>
+      <c r="I41">
         <v>5.585872</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41">
         <v>5.415243</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>5513</v>
+      </c>
+      <c r="D42" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42">
         <v>4479823.32994172</v>
       </c>
-      <c r="F42" s="5">
-        <v>45744.6125763998</v>
-      </c>
-      <c r="G42" s="5">
-        <v>45744.6126341822</v>
-      </c>
-      <c r="H42" s="5">
-        <v>45744.6126410189</v>
-      </c>
-      <c r="I42" s="2">
+      <c r="F42" s="2">
+        <v>45744.6125764005</v>
+      </c>
+      <c r="G42" s="2">
+        <v>45744.6126341782</v>
+      </c>
+      <c r="H42" s="2">
+        <v>45744.6126410185</v>
+      </c>
+      <c r="I42">
         <v>5.583092</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42">
         <v>4.992398</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>5513</v>
+      </c>
+      <c r="D43" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43">
         <v>4462263.06452091</v>
       </c>
-      <c r="F43" s="5">
-        <v>45744.6126410673</v>
-      </c>
-      <c r="G43" s="5">
-        <v>45744.6126875517</v>
-      </c>
-      <c r="H43" s="5">
-        <v>45744.612706283</v>
-      </c>
-      <c r="I43" s="2">
+      <c r="F43" s="2">
+        <v>45744.6126410648</v>
+      </c>
+      <c r="G43" s="2">
+        <v>45744.6126875463</v>
+      </c>
+      <c r="H43" s="2">
+        <v>45744.6127062847</v>
+      </c>
+      <c r="I43">
         <v>5.634635</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43">
         <v>4.016249</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>5513</v>
+      </c>
+      <c r="D44" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44">
         <v>4512272.43177379</v>
       </c>
-      <c r="F44" s="5">
-        <v>45744.6127063373</v>
-      </c>
-      <c r="G44" s="5">
-        <v>45744.6127473685</v>
-      </c>
-      <c r="H44" s="5">
-        <v>45744.6127732529</v>
-      </c>
-      <c r="I44" s="2">
+      <c r="F44" s="2">
+        <v>45744.6127063426</v>
+      </c>
+      <c r="G44" s="2">
+        <v>45744.6127473727</v>
+      </c>
+      <c r="H44" s="2">
+        <v>45744.6127732523</v>
+      </c>
+      <c r="I44">
         <v>5.781506</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44">
         <v>3.545099</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K44" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>5513</v>
+      </c>
+      <c r="D45" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45">
         <v>4545942.92951087</v>
       </c>
-      <c r="F45" s="5">
-        <v>45744.612773301</v>
-      </c>
-      <c r="G45" s="5">
-        <v>45744.6127912831</v>
-      </c>
-      <c r="H45" s="5">
-        <v>45744.612838747</v>
-      </c>
-      <c r="I45" s="2">
+      <c r="F45" s="2">
+        <v>45744.6127732986</v>
+      </c>
+      <c r="G45" s="2">
+        <v>45744.6127912847</v>
+      </c>
+      <c r="H45" s="2">
+        <v>45744.61283875</v>
+      </c>
+      <c r="I45">
         <v>5.654537</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45">
         <v>1.553657</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K45" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>5513</v>
+      </c>
+      <c r="D46" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46">
         <v>4515894.30303861</v>
       </c>
-      <c r="F46" s="5">
-        <v>45744.6128387939</v>
-      </c>
-      <c r="G46" s="5">
-        <v>45744.6128885898</v>
-      </c>
-      <c r="H46" s="5">
-        <v>45744.6129048943</v>
-      </c>
-      <c r="I46" s="2">
+      <c r="F46" s="2">
+        <v>45744.6128387963</v>
+      </c>
+      <c r="G46" s="2">
+        <v>45744.612888588</v>
+      </c>
+      <c r="H46" s="2">
+        <v>45744.6129048958</v>
+      </c>
+      <c r="I46">
         <v>5.711076</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46">
         <v>4.302368</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>5513</v>
+      </c>
+      <c r="D47" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47">
         <v>4456285.95679123</v>
       </c>
-      <c r="F47" s="5">
-        <v>45744.6129049401</v>
-      </c>
-      <c r="G47" s="5">
-        <v>45744.6129679724</v>
-      </c>
-      <c r="H47" s="5">
-        <v>45744.6129702613</v>
-      </c>
-      <c r="I47" s="2">
+      <c r="F47" s="2">
+        <v>45744.6129049421</v>
+      </c>
+      <c r="G47" s="2">
+        <v>45744.6129679745</v>
+      </c>
+      <c r="H47" s="2">
+        <v>45744.6129702662</v>
+      </c>
+      <c r="I47">
         <v>5.643757</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47">
         <v>5.445994</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>5513</v>
+      </c>
+      <c r="D48" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48">
         <v>4500765.68900483</v>
       </c>
-      <c r="F48" s="5">
-        <v>45744.6129703068</v>
-      </c>
-      <c r="G48" s="5">
-        <v>45744.6130258999</v>
-      </c>
-      <c r="H48" s="5">
-        <v>45744.6130352222</v>
-      </c>
-      <c r="I48" s="2">
+      <c r="F48" s="2">
+        <v>45744.6129703125</v>
+      </c>
+      <c r="G48" s="2">
+        <v>45744.6130259028</v>
+      </c>
+      <c r="H48" s="2">
+        <v>45744.6130352199</v>
+      </c>
+      <c r="I48">
         <v>5.608697</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48">
         <v>4.803243</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>5513</v>
+      </c>
+      <c r="D49" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49">
         <v>4532089.18124772</v>
       </c>
-      <c r="F49" s="5">
-        <v>45744.613035269</v>
-      </c>
-      <c r="G49" s="5">
-        <v>45744.6130831318</v>
-      </c>
-      <c r="H49" s="5">
-        <v>45744.6131011971</v>
-      </c>
-      <c r="I49" s="2">
+      <c r="F49" s="2">
+        <v>45744.6130352662</v>
+      </c>
+      <c r="G49" s="2">
+        <v>45744.6130831366</v>
+      </c>
+      <c r="H49" s="2">
+        <v>45744.6131011921</v>
+      </c>
+      <c r="I49">
         <v>5.69619</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49">
         <v>4.135341</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K49" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>5513</v>
+      </c>
+      <c r="D50" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50">
         <v>4484689.33347121</v>
       </c>
-      <c r="F50" s="5">
-        <v>45744.613101244</v>
-      </c>
-      <c r="G50" s="5">
-        <v>45744.6131251393</v>
-      </c>
-      <c r="H50" s="5">
-        <v>45744.6131662978</v>
-      </c>
-      <c r="I50" s="2">
+      <c r="F50" s="2">
+        <v>45744.6131012384</v>
+      </c>
+      <c r="G50" s="2">
+        <v>45744.6131251389</v>
+      </c>
+      <c r="H50" s="2">
+        <v>45744.6131662963</v>
+      </c>
+      <c r="I50">
         <v>5.620648</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50">
         <v>2.064554</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K50" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>5513</v>
+      </c>
+      <c r="D51" t="s">
         <v>64</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51">
         <v>4516338.89229</v>
       </c>
-      <c r="F51" s="5">
-        <v>45744.6131663432</v>
-      </c>
-      <c r="G51" s="5">
-        <v>45744.6131871068</v>
-      </c>
-      <c r="H51" s="5">
-        <v>45744.6132318185</v>
-      </c>
-      <c r="I51" s="2">
+      <c r="F51" s="2">
+        <v>45744.6131663426</v>
+      </c>
+      <c r="G51" s="2">
+        <v>45744.6131871065</v>
+      </c>
+      <c r="H51" s="2">
+        <v>45744.6132318171</v>
+      </c>
+      <c r="I51">
         <v>5.657073</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51">
         <v>1.793975</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K51" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>5513</v>
+      </c>
+      <c r="D52" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52">
         <v>4457241.58906933</v>
       </c>
-      <c r="F52" s="5">
-        <v>45744.6132318643</v>
-      </c>
-      <c r="G52" s="5">
-        <v>45744.6132899078</v>
-      </c>
-      <c r="H52" s="5">
-        <v>45744.613297532</v>
-      </c>
-      <c r="I52" s="2">
+      <c r="F52" s="2">
+        <v>45744.6132318634</v>
+      </c>
+      <c r="G52" s="2">
+        <v>45744.6132899074</v>
+      </c>
+      <c r="H52" s="2">
+        <v>45744.6132975347</v>
+      </c>
+      <c r="I52">
         <v>5.673692</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52">
         <v>5.014963</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>5513</v>
+      </c>
+      <c r="D53" t="s">
         <v>66</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53">
         <v>4397151.0364913</v>
       </c>
-      <c r="F53" s="5">
-        <v>45744.613297579</v>
-      </c>
-      <c r="G53" s="5">
-        <v>45744.6133302671</v>
-      </c>
-      <c r="H53" s="5">
-        <v>45744.6133637581</v>
-      </c>
-      <c r="I53" s="2">
+      <c r="F53" s="2">
+        <v>45744.613297581</v>
+      </c>
+      <c r="G53" s="2">
+        <v>45744.6133302662</v>
+      </c>
+      <c r="H53" s="2">
+        <v>45744.6133637616</v>
+      </c>
+      <c r="I53">
         <v>5.717871</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53">
         <v>2.82425</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>5513</v>
+      </c>
+      <c r="D54" t="s">
         <v>67</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54">
         <v>4468819.40081004</v>
       </c>
-      <c r="F54" s="5">
-        <v>45744.6133638021</v>
-      </c>
-      <c r="G54" s="5">
-        <v>45744.613380749</v>
-      </c>
-      <c r="H54" s="5">
-        <v>45744.6134298821</v>
-      </c>
-      <c r="I54" s="2">
+      <c r="F54" s="2">
+        <v>45744.6133638079</v>
+      </c>
+      <c r="G54" s="2">
+        <v>45744.6133807523</v>
+      </c>
+      <c r="H54" s="2">
+        <v>45744.6134298843</v>
+      </c>
+      <c r="I54">
         <v>5.709308</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54">
         <v>1.464205</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="K54" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>5513</v>
+      </c>
+      <c r="D55" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55">
         <v>4437445.38878177</v>
       </c>
-      <c r="F55" s="5">
-        <v>45744.613429935</v>
-      </c>
-      <c r="G55" s="5">
-        <v>45744.6134416986</v>
-      </c>
-      <c r="H55" s="5">
-        <v>45744.613495747</v>
-      </c>
-      <c r="I55" s="2">
+      <c r="F55" s="2">
+        <v>45744.6134299306</v>
+      </c>
+      <c r="G55" s="2">
+        <v>45744.6134417014</v>
+      </c>
+      <c r="H55" s="2">
+        <v>45744.6134957523</v>
+      </c>
+      <c r="I55">
         <v>5.686154</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55">
         <v>1.016376</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="K55" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>5513</v>
+      </c>
+      <c r="D56" t="s">
         <v>69</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56">
         <v>4487597.4126145</v>
       </c>
-      <c r="F56" s="5">
-        <v>45744.6134957933</v>
-      </c>
-      <c r="G56" s="5">
-        <v>45744.6135349297</v>
-      </c>
-      <c r="H56" s="5">
-        <v>45744.6135624828</v>
-      </c>
-      <c r="I56" s="2">
+      <c r="F56" s="2">
+        <v>45744.6134957986</v>
+      </c>
+      <c r="G56" s="2">
+        <v>45744.6135349306</v>
+      </c>
+      <c r="H56" s="2">
+        <v>45744.6135624884</v>
+      </c>
+      <c r="I56">
         <v>5.761974</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56">
         <v>3.381385</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>5513</v>
+      </c>
+      <c r="D57" t="s">
         <v>70</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57">
         <v>4455210.91428957</v>
       </c>
-      <c r="F57" s="5">
-        <v>45744.6135625307</v>
-      </c>
-      <c r="G57" s="5">
-        <v>45744.6135766327</v>
-      </c>
-      <c r="H57" s="5">
-        <v>45744.6136276102</v>
-      </c>
-      <c r="I57" s="2">
+      <c r="F57" s="2">
+        <v>45744.6135625347</v>
+      </c>
+      <c r="G57" s="2">
+        <v>45744.6135766319</v>
+      </c>
+      <c r="H57" s="2">
+        <v>45744.6136276157</v>
+      </c>
+      <c r="I57">
         <v>5.622867</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57">
         <v>1.218406</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="K57" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>5513</v>
+      </c>
+      <c r="D58" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58">
         <v>4529682.19698301</v>
       </c>
-      <c r="F58" s="5">
-        <v>45744.6136276576</v>
-      </c>
-      <c r="G58" s="5">
-        <v>45744.6136562854</v>
-      </c>
-      <c r="H58" s="5">
-        <v>45744.6136944489</v>
-      </c>
-      <c r="I58" s="2">
+      <c r="F58" s="2">
+        <v>45744.613627662</v>
+      </c>
+      <c r="G58" s="2">
+        <v>45744.6136562847</v>
+      </c>
+      <c r="H58" s="2">
+        <v>45744.6136944444</v>
+      </c>
+      <c r="I58">
         <v>5.770767</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58">
         <v>2.473446</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="K58" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>5513</v>
+      </c>
+      <c r="D59" t="s">
         <v>72</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59">
         <v>4532402.3830402</v>
       </c>
-      <c r="F59" s="5">
-        <v>45744.6136944959</v>
-      </c>
-      <c r="G59" s="5">
-        <v>45744.6137254041</v>
-      </c>
-      <c r="H59" s="5">
-        <v>45744.6137599006</v>
-      </c>
-      <c r="I59" s="2">
+      <c r="F59" s="2">
+        <v>45744.6136944907</v>
+      </c>
+      <c r="G59" s="2">
+        <v>45744.6137254051</v>
+      </c>
+      <c r="H59" s="2">
+        <v>45744.6137598958</v>
+      </c>
+      <c r="I59">
         <v>5.650962</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59">
         <v>2.670469</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K59" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <v>5513</v>
+      </c>
+      <c r="D60" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60">
         <v>4484089.67740198</v>
       </c>
-      <c r="F60" s="5">
-        <v>45744.6137599461</v>
-      </c>
-      <c r="G60" s="5">
-        <v>45744.6137858715</v>
-      </c>
-      <c r="H60" s="5">
-        <v>45744.613826261</v>
-      </c>
-      <c r="I60" s="2">
+      <c r="F60" s="2">
+        <v>45744.6137599421</v>
+      </c>
+      <c r="G60" s="2">
+        <v>45744.6137858681</v>
+      </c>
+      <c r="H60" s="2">
+        <v>45744.6138262616</v>
+      </c>
+      <c r="I60">
         <v>5.729603</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60">
         <v>2.239953</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="K60" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>5513</v>
+      </c>
+      <c r="D61" t="s">
         <v>74</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61">
         <v>4517108.8762153</v>
       </c>
-      <c r="F61" s="5">
-        <v>45744.61382631</v>
-      </c>
-      <c r="G61" s="5">
-        <v>45744.6138347117</v>
-      </c>
-      <c r="H61" s="5">
-        <v>45744.6138935774</v>
-      </c>
-      <c r="I61" s="2">
+      <c r="F61" s="2">
+        <v>45744.6138263079</v>
+      </c>
+      <c r="G61" s="2">
+        <v>45744.6138347107</v>
+      </c>
+      <c r="H61" s="2">
+        <v>45744.6138935764</v>
+      </c>
+      <c r="I61">
         <v>5.811908</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61">
         <v>0.725909</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="K61" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>5513</v>
+      </c>
+      <c r="D62" t="s">
         <v>75</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62">
         <v>4432661.71549442</v>
       </c>
-      <c r="F62" s="5">
-        <v>45744.6144980244</v>
-      </c>
-      <c r="G62" s="5">
-        <v>45744.6145492693</v>
-      </c>
-      <c r="H62" s="5">
-        <v>45744.6145638916</v>
-      </c>
-      <c r="I62" s="2">
+      <c r="F62" s="2">
+        <v>45744.6144980208</v>
+      </c>
+      <c r="G62" s="2">
+        <v>45744.6145492708</v>
+      </c>
+      <c r="H62" s="2">
+        <v>45744.6145638889</v>
+      </c>
+      <c r="I62">
         <v>5.690921</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62">
         <v>4.427555</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="K62" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>5513</v>
+      </c>
+      <c r="D63" t="s">
         <v>77</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63">
         <v>4513148.00242893</v>
       </c>
-      <c r="F63" s="5">
-        <v>45744.6145639425</v>
-      </c>
-      <c r="G63" s="5">
-        <v>45744.6145922955</v>
-      </c>
-      <c r="H63" s="5">
-        <v>45744.6146276472</v>
-      </c>
-      <c r="I63" s="2">
+      <c r="F63" s="2">
+        <v>45744.6145639468</v>
+      </c>
+      <c r="G63" s="2">
+        <v>45744.6145922917</v>
+      </c>
+      <c r="H63" s="2">
+        <v>45744.6146276505</v>
+      </c>
+      <c r="I63">
         <v>5.504089</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63">
         <v>2.449698</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="K63" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>5513</v>
+      </c>
+      <c r="D64" t="s">
         <v>78</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64">
         <v>4457900.05753174</v>
       </c>
-      <c r="F64" s="5">
-        <v>45744.6146276961</v>
-      </c>
-      <c r="G64" s="5">
-        <v>45744.6146775808</v>
-      </c>
-      <c r="H64" s="5">
-        <v>45744.6146933011</v>
-      </c>
-      <c r="I64" s="2">
+      <c r="F64" s="2">
+        <v>45744.6146276968</v>
+      </c>
+      <c r="G64" s="2">
+        <v>45744.614677581</v>
+      </c>
+      <c r="H64" s="2">
+        <v>45744.6146932986</v>
+      </c>
+      <c r="I64">
         <v>5.668273</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64">
         <v>4.310036</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="K64" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65">
+        <v>5513</v>
+      </c>
+      <c r="D65" t="s">
         <v>79</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65">
         <v>4423200.32534825</v>
       </c>
-      <c r="F65" s="5">
-        <v>45744.6146933457</v>
-      </c>
-      <c r="G65" s="5">
-        <v>45744.614712435</v>
-      </c>
-      <c r="H65" s="5">
-        <v>45744.614757556</v>
-      </c>
-      <c r="I65" s="2">
+      <c r="F65" s="2">
+        <v>45744.6146933449</v>
+      </c>
+      <c r="G65" s="2">
+        <v>45744.6147124306</v>
+      </c>
+      <c r="H65" s="2">
+        <v>45744.6147575579</v>
+      </c>
+      <c r="I65">
         <v>5.547764</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65">
         <v>1.64931</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="K65" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>5513</v>
+      </c>
+      <c r="D66" t="s">
         <v>80</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66">
         <v>4485667.814798</v>
       </c>
-      <c r="F66" s="5">
-        <v>45744.6147576014</v>
-      </c>
-      <c r="G66" s="5">
-        <v>45744.6147834434</v>
-      </c>
-      <c r="H66" s="5">
-        <v>45744.614822501</v>
-      </c>
-      <c r="I66" s="2">
+      <c r="F66" s="2">
+        <v>45744.6147576042</v>
+      </c>
+      <c r="G66" s="2">
+        <v>45744.6147834491</v>
+      </c>
+      <c r="H66" s="2">
+        <v>45744.6148225</v>
+      </c>
+      <c r="I66">
         <v>5.607329</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66">
         <v>2.232751</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="K66" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>5513</v>
+      </c>
+      <c r="D67" t="s">
         <v>81</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67">
         <v>4522448.30885647</v>
       </c>
-      <c r="F67" s="5">
-        <v>45744.6148225478</v>
-      </c>
-      <c r="G67" s="5">
-        <v>45744.6148715738</v>
-      </c>
-      <c r="H67" s="5">
-        <v>45744.6148872176</v>
-      </c>
-      <c r="I67" s="2">
+      <c r="F67" s="2">
+        <v>45744.6148225463</v>
+      </c>
+      <c r="G67" s="2">
+        <v>45744.6148715741</v>
+      </c>
+      <c r="H67" s="2">
+        <v>45744.6148872222</v>
+      </c>
+      <c r="I67">
         <v>5.587474</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67">
         <v>4.235851</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="K67" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>5513</v>
+      </c>
+      <c r="D68" t="s">
         <v>82</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68">
         <v>4525115.53043814</v>
       </c>
-      <c r="F68" s="5">
-        <v>45744.6148872643</v>
-      </c>
-      <c r="G68" s="5">
-        <v>45744.6148886416</v>
-      </c>
-      <c r="H68" s="5">
-        <v>45744.6149521905</v>
-      </c>
-      <c r="I68" s="2">
+      <c r="F68" s="2">
+        <v>45744.6148872685</v>
+      </c>
+      <c r="G68" s="2">
+        <v>45744.6148886458</v>
+      </c>
+      <c r="H68" s="2">
+        <v>45744.6149521875</v>
+      </c>
+      <c r="I68">
         <v>5.609626</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68">
         <v>0.118995</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="K68" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>5513</v>
+      </c>
+      <c r="D69" t="s">
         <v>83</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69">
         <v>4382599.87444835</v>
       </c>
-      <c r="F69" s="5">
-        <v>45744.6149522389</v>
-      </c>
-      <c r="G69" s="5">
-        <v>45744.6149558843</v>
-      </c>
-      <c r="H69" s="5">
-        <v>45744.6150177026</v>
-      </c>
-      <c r="I69" s="2">
+      <c r="F69" s="2">
+        <v>45744.6149522338</v>
+      </c>
+      <c r="G69" s="2">
+        <v>45744.6149558796</v>
+      </c>
+      <c r="H69" s="2">
+        <v>45744.6150177083</v>
+      </c>
+      <c r="I69">
         <v>5.656064</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69">
         <v>0.314965</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="K69" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70">
+        <v>5513</v>
+      </c>
+      <c r="D70" t="s">
         <v>84</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70">
         <v>4492247.15868507</v>
       </c>
-      <c r="F70" s="5">
-        <v>45744.6150177486</v>
-      </c>
-      <c r="G70" s="5">
-        <v>45744.615049693</v>
-      </c>
-      <c r="H70" s="5">
-        <v>45744.6150830488</v>
-      </c>
-      <c r="I70" s="2">
+      <c r="F70" s="2">
+        <v>45744.6150177431</v>
+      </c>
+      <c r="G70" s="2">
+        <v>45744.6150496875</v>
+      </c>
+      <c r="H70" s="2">
+        <v>45744.615083044</v>
+      </c>
+      <c r="I70">
         <v>5.641944</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70">
         <v>2.759996</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="K70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>5513</v>
+      </c>
+      <c r="D71" t="s">
         <v>85</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71">
         <v>4477801.42924823</v>
       </c>
-      <c r="F71" s="5">
-        <v>45744.6150831002</v>
-      </c>
-      <c r="G71" s="5">
-        <v>45744.6151366849</v>
-      </c>
-      <c r="H71" s="5">
-        <v>45744.615147644</v>
-      </c>
-      <c r="I71" s="2">
+      <c r="F71" s="2">
+        <v>45744.6150831019</v>
+      </c>
+      <c r="G71" s="2">
+        <v>45744.6151366898</v>
+      </c>
+      <c r="H71" s="2">
+        <v>45744.6151476389</v>
+      </c>
+      <c r="I71">
         <v>5.576584</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J71">
         <v>4.62972</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="K71" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72">
+        <v>5513</v>
+      </c>
+      <c r="D72" t="s">
         <v>86</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72">
         <v>4524263.9623867</v>
       </c>
-      <c r="F72" s="5">
-        <v>45744.6151476899</v>
-      </c>
-      <c r="G72" s="5">
-        <v>45744.6151723532</v>
-      </c>
-      <c r="H72" s="5">
-        <v>45744.6152128791</v>
-      </c>
-      <c r="I72" s="2">
+      <c r="F72" s="2">
+        <v>45744.6151476852</v>
+      </c>
+      <c r="G72" s="2">
+        <v>45744.6151723495</v>
+      </c>
+      <c r="H72" s="2">
+        <v>45744.6152128819</v>
+      </c>
+      <c r="I72">
         <v>5.63235</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J72">
         <v>2.13091</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="K72" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>5513</v>
+      </c>
+      <c r="D73" t="s">
         <v>87</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73">
         <v>4443992.54692611</v>
       </c>
-      <c r="F73" s="5">
-        <v>45744.6152129264</v>
-      </c>
-      <c r="G73" s="5">
-        <v>45744.6152399385</v>
-      </c>
-      <c r="H73" s="5">
-        <v>45744.6152796258</v>
-      </c>
-      <c r="I73" s="2">
+      <c r="F73" s="2">
+        <v>45744.6152129282</v>
+      </c>
+      <c r="G73" s="2">
+        <v>45744.6152399421</v>
+      </c>
+      <c r="H73" s="2">
+        <v>45744.6152796296</v>
+      </c>
+      <c r="I73">
         <v>5.76283</v>
       </c>
-      <c r="J73" s="2">
+      <c r="J73">
         <v>2.333841</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="K73" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>5513</v>
+      </c>
+      <c r="D74" t="s">
         <v>88</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74">
         <v>4557195.70220314</v>
       </c>
-      <c r="F74" s="5">
-        <v>45744.6152796713</v>
-      </c>
-      <c r="G74" s="5">
-        <v>45744.6153144274</v>
-      </c>
-      <c r="H74" s="5">
-        <v>45744.6153459317</v>
-      </c>
-      <c r="I74" s="2">
+      <c r="F74" s="2">
+        <v>45744.6152796759</v>
+      </c>
+      <c r="G74" s="2">
+        <v>45744.6153144329</v>
+      </c>
+      <c r="H74" s="2">
+        <v>45744.6153459259</v>
+      </c>
+      <c r="I74">
         <v>5.724897</v>
       </c>
-      <c r="J74" s="2">
+      <c r="J74">
         <v>3.002924</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K74" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <v>5513</v>
+      </c>
+      <c r="D75" t="s">
         <v>89</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75">
         <v>4474656.80404804</v>
       </c>
-      <c r="F75" s="5">
-        <v>45744.6153459781</v>
-      </c>
-      <c r="G75" s="5">
-        <v>45744.6154117631</v>
-      </c>
-      <c r="H75" s="5">
-        <v>45744.615412656</v>
-      </c>
-      <c r="I75" s="2">
+      <c r="F75" s="2">
+        <v>45744.6153459838</v>
+      </c>
+      <c r="G75" s="2">
+        <v>45744.6154117593</v>
+      </c>
+      <c r="H75" s="2">
+        <v>45744.6154126505</v>
+      </c>
+      <c r="I75">
         <v>5.760965</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J75">
         <v>5.683824</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="K75" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76">
+        <v>5513</v>
+      </c>
+      <c r="D76" t="s">
         <v>90</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76">
         <v>4430315.67389831</v>
       </c>
-      <c r="F76" s="5">
-        <v>45744.6154127025</v>
-      </c>
-      <c r="G76" s="5">
-        <v>45744.6154319541</v>
-      </c>
-      <c r="H76" s="5">
-        <v>45744.6154794846</v>
-      </c>
-      <c r="I76" s="2">
+      <c r="F76" s="2">
+        <v>45744.6154126968</v>
+      </c>
+      <c r="G76" s="2">
+        <v>45744.615431956</v>
+      </c>
+      <c r="H76" s="2">
+        <v>45744.6154794792</v>
+      </c>
+      <c r="I76">
         <v>5.769977</v>
       </c>
-      <c r="J76" s="2">
+      <c r="J76">
         <v>1.663337</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="K76" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <v>5513</v>
+      </c>
+      <c r="D77" t="s">
         <v>91</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77">
         <v>4501323.25056351</v>
       </c>
-      <c r="F77" s="5">
-        <v>45744.6154795319</v>
-      </c>
-      <c r="G77" s="5">
-        <v>45744.615542897</v>
-      </c>
-      <c r="H77" s="5">
-        <v>45744.6155456676</v>
-      </c>
-      <c r="I77" s="2">
+      <c r="F77" s="2">
+        <v>45744.615479537</v>
+      </c>
+      <c r="G77" s="2">
+        <v>45744.6155428935</v>
+      </c>
+      <c r="H77" s="2">
+        <v>45744.6155456713</v>
+      </c>
+      <c r="I77">
         <v>5.714126</v>
       </c>
-      <c r="J77" s="2">
+      <c r="J77">
         <v>5.474748</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="K77" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78">
+        <v>5513</v>
+      </c>
+      <c r="D78" t="s">
         <v>92</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78">
         <v>4500546.09334285</v>
       </c>
-      <c r="F78" s="5">
-        <v>45744.6155457135</v>
-      </c>
-      <c r="G78" s="5">
-        <v>45744.6155755619</v>
-      </c>
-      <c r="H78" s="5">
-        <v>45744.6156113182</v>
-      </c>
-      <c r="I78" s="2">
+      <c r="F78" s="2">
+        <v>45744.6155457176</v>
+      </c>
+      <c r="G78" s="2">
+        <v>45744.6155755671</v>
+      </c>
+      <c r="H78" s="2">
+        <v>45744.6156113194</v>
+      </c>
+      <c r="I78">
         <v>5.668249</v>
       </c>
-      <c r="J78" s="2">
+      <c r="J78">
         <v>2.57891</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="K78" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <v>5513</v>
+      </c>
+      <c r="D79" t="s">
         <v>93</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79">
         <v>4431124.93705979</v>
       </c>
-      <c r="F79" s="5">
-        <v>45744.6156113646</v>
-      </c>
-      <c r="G79" s="5">
-        <v>45744.6156185514</v>
-      </c>
-      <c r="H79" s="5">
-        <v>45744.6156781625</v>
-      </c>
-      <c r="I79" s="2">
+      <c r="F79" s="2">
+        <v>45744.6156113657</v>
+      </c>
+      <c r="G79" s="2">
+        <v>45744.6156185532</v>
+      </c>
+      <c r="H79" s="2">
+        <v>45744.6156781597</v>
+      </c>
+      <c r="I79">
         <v>5.771338</v>
       </c>
-      <c r="J79" s="2">
+      <c r="J79">
         <v>0.620943</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="K79" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80">
+        <v>5513</v>
+      </c>
+      <c r="D80" t="s">
         <v>94</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80">
         <v>4515366.0945453</v>
       </c>
-      <c r="F80" s="5">
-        <v>45744.6156782114</v>
-      </c>
-      <c r="G80" s="5">
-        <v>45744.6156925016</v>
-      </c>
-      <c r="H80" s="5">
-        <v>45744.6157448732</v>
-      </c>
-      <c r="I80" s="2">
+      <c r="F80" s="2">
+        <v>45744.615678206</v>
+      </c>
+      <c r="G80" s="2">
+        <v>45744.6156925</v>
+      </c>
+      <c r="H80" s="2">
+        <v>45744.6157448727</v>
+      </c>
+      <c r="I80">
         <v>5.759583</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J80">
         <v>1.234676</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="K80" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81">
+        <v>5513</v>
+      </c>
+      <c r="D81" t="s">
         <v>95</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81">
         <v>4515974.43252931</v>
       </c>
-      <c r="F81" s="5">
-        <v>45744.6157449191</v>
-      </c>
-      <c r="G81" s="5">
-        <v>45744.6157964131</v>
-      </c>
-      <c r="H81" s="5">
-        <v>45744.6158105768</v>
-      </c>
-      <c r="I81" s="2">
+      <c r="F81" s="2">
+        <v>45744.615744919</v>
+      </c>
+      <c r="G81" s="2">
+        <v>45744.615796412</v>
+      </c>
+      <c r="H81" s="2">
+        <v>45744.6158105787</v>
+      </c>
+      <c r="I81">
         <v>5.672828</v>
       </c>
-      <c r="J81" s="2">
+      <c r="J81">
         <v>4.449082</v>
       </c>
-      <c r="K81" s="2" t="s">
+      <c r="K81" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82">
+        <v>5513</v>
+      </c>
+      <c r="D82" t="s">
         <v>96</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82">
         <v>4453153.91400435</v>
       </c>
-      <c r="F82" s="5">
-        <v>45744.6158106235</v>
-      </c>
-      <c r="G82" s="5">
-        <v>45744.6158392714</v>
-      </c>
-      <c r="H82" s="5">
-        <v>45744.6158769968</v>
-      </c>
-      <c r="I82" s="2">
+      <c r="F82" s="2">
+        <v>45744.615810625</v>
+      </c>
+      <c r="G82" s="2">
+        <v>45744.6158392708</v>
+      </c>
+      <c r="H82" s="2">
+        <v>45744.6158770023</v>
+      </c>
+      <c r="I82">
         <v>5.73465</v>
       </c>
-      <c r="J82" s="2">
+      <c r="J82">
         <v>2.47518</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="K82" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <v>5513</v>
+      </c>
+      <c r="D83" t="s">
         <v>97</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83">
         <v>4511940.19132858</v>
       </c>
-      <c r="F83" s="5">
-        <v>45744.6158770417</v>
-      </c>
-      <c r="G83" s="5">
-        <v>45744.615892543</v>
-      </c>
-      <c r="H83" s="5">
-        <v>45744.615943085</v>
-      </c>
-      <c r="I83" s="2">
+      <c r="F83" s="2">
+        <v>45744.615877037</v>
+      </c>
+      <c r="G83" s="2">
+        <v>45744.6158925463</v>
+      </c>
+      <c r="H83" s="2">
+        <v>45744.6159430903</v>
+      </c>
+      <c r="I83">
         <v>5.706137</v>
       </c>
-      <c r="J83" s="2">
+      <c r="J83">
         <v>1.33931</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="K83" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84">
+        <v>5513</v>
+      </c>
+      <c r="D84" t="s">
         <v>98</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84">
         <v>4499259.46103948</v>
       </c>
-      <c r="F84" s="5">
-        <v>45744.61594313</v>
-      </c>
-      <c r="G84" s="5">
-        <v>45744.6159486987</v>
-      </c>
-      <c r="H84" s="5">
-        <v>45744.6160088327</v>
-      </c>
-      <c r="I84" s="2">
+      <c r="F84" s="2">
+        <v>45744.615943125</v>
+      </c>
+      <c r="G84" s="2">
+        <v>45744.6159487037</v>
+      </c>
+      <c r="H84" s="2">
+        <v>45744.616008831</v>
+      </c>
+      <c r="I84">
         <v>5.676719</v>
       </c>
-      <c r="J84" s="2">
+      <c r="J84">
         <v>0.481138</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="K84" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <v>5513</v>
+      </c>
+      <c r="D85" t="s">
         <v>99</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85">
         <v>4479206.12673163</v>
       </c>
-      <c r="F85" s="5">
-        <v>45744.6160088793</v>
-      </c>
-      <c r="G85" s="5">
-        <v>45744.616044886</v>
-      </c>
-      <c r="H85" s="5">
-        <v>45744.6160728811</v>
-      </c>
-      <c r="I85" s="2">
+      <c r="F85" s="2">
+        <v>45744.6160088773</v>
+      </c>
+      <c r="G85" s="2">
+        <v>45744.6160448843</v>
+      </c>
+      <c r="H85" s="2">
+        <v>45744.616072882</v>
+      </c>
+      <c r="I85">
         <v>5.529751</v>
       </c>
-      <c r="J85" s="2">
+      <c r="J85">
         <v>3.110972</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="K85" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>5513</v>
+      </c>
+      <c r="D86" t="s">
         <v>100</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86">
         <v>4481379.02131497</v>
       </c>
-      <c r="F86" s="5">
-        <v>45744.6160729273</v>
-      </c>
-      <c r="G86" s="5">
-        <v>45744.6161077821</v>
-      </c>
-      <c r="H86" s="5">
-        <v>45744.6161392521</v>
-      </c>
-      <c r="I86" s="2">
+      <c r="F86" s="2">
+        <v>45744.6160729282</v>
+      </c>
+      <c r="G86" s="2">
+        <v>45744.6161077778</v>
+      </c>
+      <c r="H86" s="2">
+        <v>45744.6161392477</v>
+      </c>
+      <c r="I86">
         <v>5.730464</v>
       </c>
-      <c r="J86" s="2">
+      <c r="J86">
         <v>3.011458</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="K86" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D87" s="2" t="s">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>5513</v>
+      </c>
+      <c r="D87" t="s">
         <v>101</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87">
         <v>4477879.08438743</v>
       </c>
-      <c r="F87" s="5">
-        <v>45744.6161392991</v>
-      </c>
-      <c r="G87" s="5">
-        <v>45744.6161924389</v>
-      </c>
-      <c r="H87" s="5">
-        <v>45744.6162049554</v>
-      </c>
-      <c r="I87" s="2">
+      <c r="F87" s="2">
+        <v>45744.616139294</v>
+      </c>
+      <c r="G87" s="2">
+        <v>45744.6161924421</v>
+      </c>
+      <c r="H87" s="2">
+        <v>45744.6162049537</v>
+      </c>
+      <c r="I87">
         <v>5.67271</v>
       </c>
-      <c r="J87" s="2">
+      <c r="J87">
         <v>4.591281</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="K87" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C88" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>5513</v>
+      </c>
+      <c r="D88" t="s">
         <v>102</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88">
         <v>4537403.33557301</v>
       </c>
-      <c r="F88" s="5">
-        <v>45744.6162050008</v>
-      </c>
-      <c r="G88" s="5">
-        <v>45744.616245158</v>
-      </c>
-      <c r="H88" s="5">
-        <v>45744.6162720813</v>
-      </c>
-      <c r="I88" s="2">
+      <c r="F88" s="2">
+        <v>45744.616205</v>
+      </c>
+      <c r="G88" s="2">
+        <v>45744.616245162</v>
+      </c>
+      <c r="H88" s="2">
+        <v>45744.6162720833</v>
+      </c>
+      <c r="I88">
         <v>5.795753</v>
       </c>
-      <c r="J88" s="2">
+      <c r="J88">
         <v>3.469581</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="K88" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C89" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>5513</v>
+      </c>
+      <c r="D89" t="s">
         <v>103</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89">
         <v>4470812.66868269</v>
       </c>
-      <c r="F89" s="5">
-        <v>45744.6162721294</v>
-      </c>
-      <c r="G89" s="5">
-        <v>45744.6162751933</v>
-      </c>
-      <c r="H89" s="5">
-        <v>45744.6163377906</v>
-      </c>
-      <c r="I89" s="2">
+      <c r="F89" s="2">
+        <v>45744.6162721296</v>
+      </c>
+      <c r="G89" s="2">
+        <v>45744.6162751968</v>
+      </c>
+      <c r="H89" s="2">
+        <v>45744.6163377894</v>
+      </c>
+      <c r="I89">
         <v>5.673125</v>
       </c>
-      <c r="J89" s="2">
+      <c r="J89">
         <v>0.264723</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="K89" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C90" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <v>5513</v>
+      </c>
+      <c r="D90" t="s">
         <v>104</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90">
         <v>4499825.02743887</v>
       </c>
-      <c r="F90" s="5">
-        <v>45744.6163378384</v>
-      </c>
-      <c r="G90" s="5">
-        <v>45744.6163654141</v>
-      </c>
-      <c r="H90" s="5">
-        <v>45744.6164042743</v>
-      </c>
-      <c r="I90" s="2">
+      <c r="F90" s="2">
+        <v>45744.6163378357</v>
+      </c>
+      <c r="G90" s="2">
+        <v>45744.6163654167</v>
+      </c>
+      <c r="H90" s="2">
+        <v>45744.6164042708</v>
+      </c>
+      <c r="I90">
         <v>5.74006</v>
       </c>
-      <c r="J90" s="2">
+      <c r="J90">
         <v>2.382535</v>
       </c>
-      <c r="K90" s="2" t="s">
+      <c r="K90" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C91" s="2">
-        <v>5513</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <v>5513</v>
+      </c>
+      <c r="D91" t="s">
         <v>105</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91">
         <v>4525219.29035729</v>
       </c>
-      <c r="F91" s="5">
-        <v>45744.616404324</v>
-      </c>
-      <c r="G91" s="5">
-        <v>45744.6164410851</v>
-      </c>
-      <c r="H91" s="5">
-        <v>45744.6164697378</v>
-      </c>
-      <c r="I91" s="2">
+      <c r="F91" s="2">
+        <v>45744.6164043287</v>
+      </c>
+      <c r="G91" s="2">
+        <v>45744.616441088</v>
+      </c>
+      <c r="H91" s="2">
+        <v>45744.6164697338</v>
+      </c>
+      <c r="I91">
         <v>5.651754</v>
       </c>
-      <c r="J91" s="2">
+      <c r="J91">
         <v>3.176161</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="K91" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92">
+        <v>5513</v>
+      </c>
+      <c r="D92" t="s">
+        <v>106</v>
+      </c>
+      <c r="E92">
+        <v>4463949.72041048</v>
+      </c>
+      <c r="F92" s="2">
+        <v>45768.8931449768</v>
+      </c>
+      <c r="G92" s="2">
+        <v>45768.8931464468</v>
+      </c>
+      <c r="H92" s="2">
+        <v>45768.8932083449</v>
+      </c>
+      <c r="I92">
+        <v>5.475638</v>
+      </c>
+      <c r="J92">
+        <v>0.127275</v>
+      </c>
+      <c r="K92" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>5513</v>
+      </c>
+      <c r="D93" t="s">
+        <v>108</v>
+      </c>
+      <c r="E93">
+        <v>4445511.72684759</v>
+      </c>
+      <c r="F93" s="2">
+        <v>45768.8932091088</v>
+      </c>
+      <c r="G93" s="2">
+        <v>45768.8932256134</v>
+      </c>
+      <c r="H93" s="2">
+        <v>45768.8932742014</v>
+      </c>
+      <c r="I93">
+        <v>5.6245</v>
+      </c>
+      <c r="J93">
+        <v>1.426468</v>
+      </c>
+      <c r="K93" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94">
+        <v>5513</v>
+      </c>
+      <c r="D94" t="s">
+        <v>109</v>
+      </c>
+      <c r="E94">
+        <v>4522506.57596105</v>
+      </c>
+      <c r="F94" s="2">
+        <v>45768.8932745139</v>
+      </c>
+      <c r="G94" s="2">
+        <v>45768.8933121643</v>
+      </c>
+      <c r="H94" s="2">
+        <v>45768.8933401505</v>
+      </c>
+      <c r="I94">
+        <v>5.670936</v>
+      </c>
+      <c r="J94">
+        <v>3.252541</v>
+      </c>
+      <c r="K94" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95">
+        <v>5513</v>
+      </c>
+      <c r="D95" t="s">
+        <v>110</v>
+      </c>
+      <c r="E95">
+        <v>4473329.28056285</v>
+      </c>
+      <c r="F95" s="2">
+        <v>45768.893340463</v>
+      </c>
+      <c r="G95" s="2">
+        <v>45768.8933863657</v>
+      </c>
+      <c r="H95" s="2">
+        <v>45768.893404919</v>
+      </c>
+      <c r="I95">
+        <v>5.568225</v>
+      </c>
+      <c r="J95">
+        <v>3.965352</v>
+      </c>
+      <c r="K95" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96">
+        <v>5513</v>
+      </c>
+      <c r="D96" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96">
+        <v>4515104.02971456</v>
+      </c>
+      <c r="F96" s="2">
+        <v>45768.8934052315</v>
+      </c>
+      <c r="G96" s="2">
+        <v>45768.893414213</v>
+      </c>
+      <c r="H96" s="2">
+        <v>45768.8934706597</v>
+      </c>
+      <c r="I96">
+        <v>5.653113</v>
+      </c>
+      <c r="J96">
+        <v>0.77632</v>
+      </c>
+      <c r="K96" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>5513</v>
+      </c>
+      <c r="D97" t="s">
+        <v>112</v>
+      </c>
+      <c r="E97">
+        <v>4492337.07801763</v>
+      </c>
+      <c r="F97" s="2">
+        <v>45768.8934709722</v>
+      </c>
+      <c r="G97" s="2">
+        <v>45768.8935345718</v>
+      </c>
+      <c r="H97" s="2">
+        <v>45768.8935354514</v>
+      </c>
+      <c r="I97">
+        <v>5.570779</v>
+      </c>
+      <c r="J97">
+        <v>5.494293</v>
+      </c>
+      <c r="K97" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98">
+        <v>5513</v>
+      </c>
+      <c r="D98" t="s">
+        <v>113</v>
+      </c>
+      <c r="E98">
+        <v>4448741.85503603</v>
+      </c>
+      <c r="F98" s="2">
+        <v>45768.8935357755</v>
+      </c>
+      <c r="G98" s="2">
+        <v>45768.8935784143</v>
+      </c>
+      <c r="H98" s="2">
+        <v>45768.8936015509</v>
+      </c>
+      <c r="I98">
+        <v>5.682912</v>
+      </c>
+      <c r="J98">
+        <v>3.683781</v>
+      </c>
+      <c r="K98" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99">
+        <v>5513</v>
+      </c>
+      <c r="D99" t="s">
+        <v>114</v>
+      </c>
+      <c r="E99">
+        <v>4470120.45117926</v>
+      </c>
+      <c r="F99" s="2">
+        <v>45768.893601875</v>
+      </c>
+      <c r="G99" s="2">
+        <v>45768.8936129167</v>
+      </c>
+      <c r="H99" s="2">
+        <v>45768.8936664468</v>
+      </c>
+      <c r="I99">
+        <v>5.579589</v>
+      </c>
+      <c r="J99">
+        <v>0.953728</v>
+      </c>
+      <c r="K99" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100">
+        <v>5513</v>
+      </c>
+      <c r="D100" t="s">
+        <v>115</v>
+      </c>
+      <c r="E100">
+        <v>4483162.84622754</v>
+      </c>
+      <c r="F100" s="2">
+        <v>45768.8936667824</v>
+      </c>
+      <c r="G100" s="2">
+        <v>45768.8936893171</v>
+      </c>
+      <c r="H100" s="2">
+        <v>45768.8937319792</v>
+      </c>
+      <c r="I100">
+        <v>5.633852</v>
+      </c>
+      <c r="J100">
+        <v>1.947913</v>
+      </c>
+      <c r="K100" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101">
+        <v>5513</v>
+      </c>
+      <c r="D101" t="s">
+        <v>116</v>
+      </c>
+      <c r="E101">
+        <v>4445185.06993234</v>
+      </c>
+      <c r="F101" s="2">
+        <v>45768.8937323148</v>
+      </c>
+      <c r="G101" s="2">
+        <v>45768.8937484491</v>
+      </c>
+      <c r="H101" s="2">
+        <v>45768.8937979514</v>
+      </c>
+      <c r="I101">
+        <v>5.670694</v>
+      </c>
+      <c r="J101">
+        <v>1.393899</v>
+      </c>
+      <c r="K101" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102">
+        <v>5513</v>
+      </c>
+      <c r="D102" t="s">
+        <v>117</v>
+      </c>
+      <c r="E102">
+        <v>4496227.50527114</v>
+      </c>
+      <c r="F102" s="2">
+        <v>45768.8937982755</v>
+      </c>
+      <c r="G102" s="2">
+        <v>45768.8938089468</v>
+      </c>
+      <c r="H102" s="2">
+        <v>45768.8938636574</v>
+      </c>
+      <c r="I102">
+        <v>5.649343</v>
+      </c>
+      <c r="J102">
+        <v>0.922046</v>
+      </c>
+      <c r="K102" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103">
+        <v>5513</v>
+      </c>
+      <c r="D103" t="s">
+        <v>118</v>
+      </c>
+      <c r="E103">
+        <v>4483349.94660452</v>
+      </c>
+      <c r="F103" s="2">
+        <v>45768.893864294</v>
+      </c>
+      <c r="G103" s="2">
+        <v>45768.8938977662</v>
+      </c>
+      <c r="H103" s="2">
+        <v>45768.893929294</v>
+      </c>
+      <c r="I103">
+        <v>5.616456</v>
+      </c>
+      <c r="J103">
+        <v>2.891624</v>
+      </c>
+      <c r="K103" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <v>5513</v>
+      </c>
+      <c r="D104" t="s">
+        <v>119</v>
+      </c>
+      <c r="E104">
+        <v>4433720.60861498</v>
+      </c>
+      <c r="F104" s="2">
+        <v>45768.893929618</v>
+      </c>
+      <c r="G104" s="2">
+        <v>45768.8939893171</v>
+      </c>
+      <c r="H104" s="2">
+        <v>45768.8939955903</v>
+      </c>
+      <c r="I104">
+        <v>5.699262</v>
+      </c>
+      <c r="J104">
+        <v>5.157187</v>
+      </c>
+      <c r="K104" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105">
+        <v>5513</v>
+      </c>
+      <c r="D105" t="s">
+        <v>120</v>
+      </c>
+      <c r="E105">
+        <v>4515483.63565211</v>
+      </c>
+      <c r="F105" s="2">
+        <v>45768.8939959144</v>
+      </c>
+      <c r="G105" s="2">
+        <v>45768.8940087963</v>
+      </c>
+      <c r="H105" s="2">
+        <v>45768.8940617593</v>
+      </c>
+      <c r="I105">
+        <v>5.689003</v>
+      </c>
+      <c r="J105">
+        <v>1.112802</v>
+      </c>
+      <c r="K105" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106">
+        <v>5513</v>
+      </c>
+      <c r="D106" t="s">
+        <v>121</v>
+      </c>
+      <c r="E106">
+        <v>4502635.68411091</v>
+      </c>
+      <c r="F106" s="2">
+        <v>45768.8940620949</v>
+      </c>
+      <c r="G106" s="2">
+        <v>45768.894119919</v>
+      </c>
+      <c r="H106" s="2">
+        <v>45768.8941275231</v>
+      </c>
+      <c r="I106">
+        <v>5.652843</v>
+      </c>
+      <c r="J106">
+        <v>4.996172</v>
+      </c>
+      <c r="K106" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107">
+        <v>5513</v>
+      </c>
+      <c r="D107" t="s">
+        <v>122</v>
+      </c>
+      <c r="E107">
+        <v>4511517.16983213</v>
+      </c>
+      <c r="F107" s="2">
+        <v>45768.8941278588</v>
+      </c>
+      <c r="G107" s="2">
+        <v>45768.8941720486</v>
+      </c>
+      <c r="H107" s="2">
+        <v>45768.8941935417</v>
+      </c>
+      <c r="I107">
+        <v>5.674982</v>
+      </c>
+      <c r="J107">
+        <v>3.818516</v>
+      </c>
+      <c r="K107" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108">
+        <v>5513</v>
+      </c>
+      <c r="D108" t="s">
+        <v>123</v>
+      </c>
+      <c r="E108">
+        <v>4458182.07065627</v>
+      </c>
+      <c r="F108" s="2">
+        <v>45768.8941938773</v>
+      </c>
+      <c r="G108" s="2">
+        <v>45768.8942222685</v>
+      </c>
+      <c r="H108" s="2">
+        <v>45768.8942601852</v>
+      </c>
+      <c r="I108">
+        <v>5.729639</v>
+      </c>
+      <c r="J108">
+        <v>2.453012</v>
+      </c>
+      <c r="K108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109">
+        <v>5513</v>
+      </c>
+      <c r="D109" t="s">
+        <v>124</v>
+      </c>
+      <c r="E109">
+        <v>4522019.07966464</v>
+      </c>
+      <c r="F109" s="2">
+        <v>45768.8942605208</v>
+      </c>
+      <c r="G109" s="2">
+        <v>45768.8942997569</v>
+      </c>
+      <c r="H109" s="2">
+        <v>45768.8943265393</v>
+      </c>
+      <c r="I109">
+        <v>5.704194</v>
+      </c>
+      <c r="J109">
+        <v>3.389494</v>
+      </c>
+      <c r="K109" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110">
+        <v>5513</v>
+      </c>
+      <c r="D110" t="s">
+        <v>125</v>
+      </c>
+      <c r="E110">
+        <v>4534884.71983186</v>
+      </c>
+      <c r="F110" s="2">
+        <v>45768.8943268866</v>
+      </c>
+      <c r="G110" s="2">
+        <v>45768.8943838773</v>
+      </c>
+      <c r="H110" s="2">
+        <v>45768.8943932755</v>
+      </c>
+      <c r="I110">
+        <v>5.736017</v>
+      </c>
+      <c r="J110">
+        <v>4.924198</v>
+      </c>
+      <c r="K110" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111">
+        <v>5513</v>
+      </c>
+      <c r="D111" t="s">
+        <v>126</v>
+      </c>
+      <c r="E111">
+        <v>4490584.82620368</v>
+      </c>
+      <c r="F111" s="2">
+        <v>45768.8943936227</v>
+      </c>
+      <c r="G111" s="2">
+        <v>45768.8944509028</v>
+      </c>
+      <c r="H111" s="2">
+        <v>45768.8944587963</v>
+      </c>
+      <c r="I111">
+        <v>5.63133</v>
+      </c>
+      <c r="J111">
+        <v>4.948824</v>
+      </c>
+      <c r="K111" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112">
+        <v>5513</v>
+      </c>
+      <c r="D112" t="s">
+        <v>127</v>
+      </c>
+      <c r="E112">
+        <v>4531468.19059744</v>
+      </c>
+      <c r="F112" s="2">
+        <v>45768.8944591435</v>
+      </c>
+      <c r="G112" s="2">
+        <v>45768.8944751273</v>
+      </c>
+      <c r="H112" s="2">
+        <v>45768.8945244097</v>
+      </c>
+      <c r="I112">
+        <v>5.639856</v>
+      </c>
+      <c r="J112">
+        <v>1.381339</v>
+      </c>
+      <c r="K112" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113">
+        <v>5513</v>
+      </c>
+      <c r="D113" t="s">
+        <v>128</v>
+      </c>
+      <c r="E113">
+        <v>4469689.96393051</v>
+      </c>
+      <c r="F113" s="2">
+        <v>45768.8945247569</v>
+      </c>
+      <c r="G113" s="2">
+        <v>45768.8945683333</v>
+      </c>
+      <c r="H113" s="2">
+        <v>45768.8945896643</v>
+      </c>
+      <c r="I113">
+        <v>5.6084</v>
+      </c>
+      <c r="J113">
+        <v>3.76533</v>
+      </c>
+      <c r="K113" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114">
+        <v>5513</v>
+      </c>
+      <c r="D114" t="s">
+        <v>129</v>
+      </c>
+      <c r="E114">
+        <v>4545434.71698339</v>
+      </c>
+      <c r="F114" s="2">
+        <v>45768.8945900231</v>
+      </c>
+      <c r="G114" s="2">
+        <v>45768.8946252083</v>
+      </c>
+      <c r="H114" s="2">
+        <v>45768.8946550347</v>
+      </c>
+      <c r="I114">
+        <v>5.617092</v>
+      </c>
+      <c r="J114">
+        <v>3.039772</v>
+      </c>
+      <c r="K114" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115">
+        <v>5513</v>
+      </c>
+      <c r="D115" t="s">
+        <v>130</v>
+      </c>
+      <c r="E115">
+        <v>4490714.59972011</v>
+      </c>
+      <c r="F115" s="2">
+        <v>45768.8946553819</v>
+      </c>
+      <c r="G115" s="2">
+        <v>45768.8946682292</v>
+      </c>
+      <c r="H115" s="2">
+        <v>45768.8947218403</v>
+      </c>
+      <c r="I115">
+        <v>5.74131</v>
+      </c>
+      <c r="J115">
+        <v>1.110051</v>
+      </c>
+      <c r="K115" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116">
+        <v>5513</v>
+      </c>
+      <c r="D116" t="s">
+        <v>131</v>
+      </c>
+      <c r="E116">
+        <v>4532680.21689518</v>
+      </c>
+      <c r="F116" s="2">
+        <v>45768.8947221875</v>
+      </c>
+      <c r="G116" s="2">
+        <v>45768.8947370255</v>
+      </c>
+      <c r="H116" s="2">
+        <v>45768.8947871412</v>
+      </c>
+      <c r="I116">
+        <v>5.612259</v>
+      </c>
+      <c r="J116">
+        <v>1.281624</v>
+      </c>
+      <c r="K116" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>5513</v>
+      </c>
+      <c r="D117" t="s">
+        <v>132</v>
+      </c>
+      <c r="E117">
+        <v>4579033.91493984</v>
+      </c>
+      <c r="F117" s="2">
+        <v>45768.8947875</v>
+      </c>
+      <c r="G117" s="2">
+        <v>45768.8948107523</v>
+      </c>
+      <c r="H117" s="2">
+        <v>45768.8948536227</v>
+      </c>
+      <c r="I117">
+        <v>5.713524</v>
+      </c>
+      <c r="J117">
+        <v>2.009333</v>
+      </c>
+      <c r="K117" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118">
+        <v>5513</v>
+      </c>
+      <c r="D118" t="s">
+        <v>133</v>
+      </c>
+      <c r="E118">
+        <v>4471411.10032109</v>
+      </c>
+      <c r="F118" s="2">
+        <v>45768.8948539931</v>
+      </c>
+      <c r="G118" s="2">
+        <v>45768.8949150116</v>
+      </c>
+      <c r="H118" s="2">
+        <v>45768.8949193403</v>
+      </c>
+      <c r="I118">
+        <v>5.646108</v>
+      </c>
+      <c r="J118">
+        <v>5.271812</v>
+      </c>
+      <c r="K118" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>5513</v>
+      </c>
+      <c r="D119" t="s">
+        <v>134</v>
+      </c>
+      <c r="E119">
+        <v>4546594.82152727</v>
+      </c>
+      <c r="F119" s="2">
+        <v>45768.8949196991</v>
+      </c>
+      <c r="G119" s="2">
+        <v>45768.8949288542</v>
+      </c>
+      <c r="H119" s="2">
+        <v>45768.8949865509</v>
+      </c>
+      <c r="I119">
+        <v>5.775798</v>
+      </c>
+      <c r="J119">
+        <v>0.791475</v>
+      </c>
+      <c r="K119" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120">
+        <v>5513</v>
+      </c>
+      <c r="D120" t="s">
+        <v>135</v>
+      </c>
+      <c r="E120">
+        <v>4506549.76604481</v>
+      </c>
+      <c r="F120" s="2">
+        <v>45768.8949869097</v>
+      </c>
+      <c r="G120" s="2">
+        <v>45768.8950287037</v>
+      </c>
+      <c r="H120" s="2">
+        <v>45768.8950532292</v>
+      </c>
+      <c r="I120">
+        <v>5.729565</v>
+      </c>
+      <c r="J120">
+        <v>3.610651</v>
+      </c>
+      <c r="K120" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121">
+        <v>5513</v>
+      </c>
+      <c r="D121" t="s">
+        <v>136</v>
+      </c>
+      <c r="E121">
+        <v>4497232.33479174</v>
+      </c>
+      <c r="F121" s="2">
+        <v>45768.895053896</v>
+      </c>
+      <c r="G121" s="2">
+        <v>45768.8950658202</v>
+      </c>
+      <c r="H121" s="2">
+        <v>45768.895119036</v>
+      </c>
+      <c r="I121">
+        <v>5.628094</v>
+      </c>
+      <c r="J121">
+        <v>1.030257</v>
+      </c>
+      <c r="K121" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
